--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1221,20 +1221,14 @@
         <v>49.895</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>49.9</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,20 +1256,14 @@
         <v>49.89666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1342,20 +1326,14 @@
         <v>49.89833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1383,20 +1361,14 @@
         <v>49.905</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>49.9</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1424,20 +1396,14 @@
         <v>49.90666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1472,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1504,20 +1466,14 @@
         <v>49.90666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1545,20 +1501,14 @@
         <v>49.90666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>49.3</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1586,20 +1536,14 @@
         <v>49.90333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>49.2</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1627,20 +1571,14 @@
         <v>49.90000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>49.3</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1612,12 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1717,10 +1653,12 @@
       <c r="J36" t="n">
         <v>49.4</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1758,10 +1696,12 @@
       <c r="J37" t="n">
         <v>49.4</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1799,10 +1739,12 @@
       <c r="J38" t="n">
         <v>49.4</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1840,7 +1782,9 @@
       <c r="J39" t="n">
         <v>49.4</v>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1873,15 +1817,15 @@
         <v>49.87833333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1914,15 +1858,15 @@
         <v>49.87666666666668</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1955,15 +1899,15 @@
         <v>49.87166666666668</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,15 +1940,15 @@
         <v>49.86666666666669</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2037,15 +1981,15 @@
         <v>49.86000000000002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,15 +2022,15 @@
         <v>49.85166666666669</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,15 +2063,15 @@
         <v>49.85000000000002</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,15 +2104,15 @@
         <v>49.84333333333336</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,15 +2145,15 @@
         <v>49.83500000000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,15 +2186,15 @@
         <v>49.82500000000002</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2283,15 +2227,15 @@
         <v>49.81166666666669</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,9 +2274,11 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>49.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,9 +2317,11 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>49.8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,7 +2362,9 @@
       <c r="J53" t="n">
         <v>49.4</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2455,7 +2405,9 @@
       <c r="J54" t="n">
         <v>49.4</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2494,9 +2446,11 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>49.4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,15 +2483,15 @@
         <v>49.72333333333335</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,15 +2524,15 @@
         <v>49.71000000000002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2611,15 +2565,15 @@
         <v>49.69166666666668</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2652,15 +2606,15 @@
         <v>49.67333333333335</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,15 +2647,15 @@
         <v>49.65666666666668</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,15 +2688,15 @@
         <v>49.64333333333335</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,15 +2729,15 @@
         <v>49.63000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,15 +2770,15 @@
         <v>49.61166666666668</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2857,15 +2811,15 @@
         <v>49.59000000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,15 +2852,15 @@
         <v>49.57333333333335</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,15 +2893,15 @@
         <v>49.56500000000002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,15 +2934,15 @@
         <v>49.55166666666669</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,15 +2975,15 @@
         <v>49.54833333333335</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3062,15 +3016,15 @@
         <v>49.54500000000002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,15 +3057,15 @@
         <v>49.54000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3144,15 +3098,15 @@
         <v>49.53166666666668</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,15 +3139,15 @@
         <v>49.53000000000002</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,15 +3180,15 @@
         <v>49.52166666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,15 +3221,15 @@
         <v>49.52000000000002</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,15 +3262,15 @@
         <v>49.52333333333335</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,15 +3303,15 @@
         <v>49.52500000000003</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,15 +3344,15 @@
         <v>49.52500000000003</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3431,15 +3385,15 @@
         <v>49.52000000000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,15 +3426,15 @@
         <v>49.51500000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,15 +3467,15 @@
         <v>49.52000000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,15 +3508,15 @@
         <v>49.52333333333336</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3595,15 +3549,15 @@
         <v>49.5366666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>50</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,15 +3590,15 @@
         <v>49.5466666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3683,7 +3637,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,7 +3678,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,7 +3719,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,7 +3760,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3839,7 +3801,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,7 +3842,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,7 +3883,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,7 +3924,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,7 +3965,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,7 +4006,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,7 +4047,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,7 +4088,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,7 +4129,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,7 +4170,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,7 +4211,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,7 +4252,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,7 +4293,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,7 +4334,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,7 +4375,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,7 +4416,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,7 +4457,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,15 +4492,15 @@
         <v>49.7033333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,15 +4533,15 @@
         <v>49.69999999999997</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,15 +4574,15 @@
         <v>49.69999999999997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4619,15 +4615,15 @@
         <v>49.7033333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,15 +4656,15 @@
         <v>49.70666666666663</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4701,15 +4697,15 @@
         <v>49.70999999999996</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4742,15 +4738,15 @@
         <v>49.70499999999996</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4783,15 +4779,15 @@
         <v>49.70833333333329</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4824,15 +4820,15 @@
         <v>49.70999999999995</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,15 +4861,15 @@
         <v>49.71166666666662</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4906,15 +4902,15 @@
         <v>49.71166666666662</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4947,15 +4943,15 @@
         <v>49.70999999999995</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,15 +4984,15 @@
         <v>49.71333333333328</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5029,15 +5025,15 @@
         <v>49.71833333333328</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5070,15 +5066,15 @@
         <v>49.72333333333329</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5111,15 +5107,15 @@
         <v>49.72666666666662</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>50.3</v>
       </c>
       <c r="F2" t="n">
-        <v>16194.3319</v>
+        <v>10108.0866</v>
       </c>
       <c r="G2" t="n">
-        <v>49.48833333333334</v>
+        <v>49.45500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50.4</v>
+        <v>50.3</v>
       </c>
       <c r="C3" t="n">
-        <v>50.6</v>
+        <v>50.3</v>
       </c>
       <c r="D3" t="n">
-        <v>50.6</v>
+        <v>50.3</v>
       </c>
       <c r="E3" t="n">
-        <v>50.4</v>
+        <v>50.3</v>
       </c>
       <c r="F3" t="n">
-        <v>27086.76376342</v>
+        <v>16194.3319</v>
       </c>
       <c r="G3" t="n">
-        <v>49.52500000000001</v>
+        <v>49.48833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50.7</v>
+        <v>50.4</v>
       </c>
       <c r="C4" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="D4" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="E4" t="n">
-        <v>50.7</v>
+        <v>50.4</v>
       </c>
       <c r="F4" t="n">
-        <v>11896.2919</v>
+        <v>27086.76376342</v>
       </c>
       <c r="G4" t="n">
-        <v>49.56000000000001</v>
+        <v>49.52500000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="C5" t="n">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="D5" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="E5" t="n">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="F5" t="n">
-        <v>6954.0475</v>
+        <v>11896.2919</v>
       </c>
       <c r="G5" t="n">
-        <v>49.59000000000001</v>
+        <v>49.56000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50.2</v>
+        <v>50.6</v>
       </c>
       <c r="C6" t="n">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
       <c r="D6" t="n">
-        <v>50.2</v>
+        <v>50.6</v>
       </c>
       <c r="E6" t="n">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3867</v>
+        <v>6954.0475</v>
       </c>
       <c r="G6" t="n">
-        <v>49.61500000000001</v>
+        <v>49.59000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -620,10 +620,10 @@
         <v>50.2</v>
       </c>
       <c r="F7" t="n">
-        <v>5920.537</v>
+        <v>3867</v>
       </c>
       <c r="G7" t="n">
-        <v>49.64000000000001</v>
+        <v>49.61500000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.9</v>
+        <v>50.2</v>
       </c>
       <c r="C8" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9</v>
+        <v>50.2</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="F8" t="n">
-        <v>17194.527</v>
+        <v>5920.537</v>
       </c>
       <c r="G8" t="n">
-        <v>49.65833333333335</v>
+        <v>49.64000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C9" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D9" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="E9" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="F9" t="n">
-        <v>19033.1708</v>
+        <v>17194.527</v>
       </c>
       <c r="G9" t="n">
-        <v>49.67833333333335</v>
+        <v>49.65833333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C10" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="D10" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E10" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F10" t="n">
-        <v>18388.8905</v>
+        <v>19033.1708</v>
       </c>
       <c r="G10" t="n">
-        <v>49.70333333333335</v>
+        <v>49.67833333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D11" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E11" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5505.6132</v>
+        <v>18388.8905</v>
       </c>
       <c r="G11" t="n">
-        <v>49.72666666666668</v>
+        <v>49.70333333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C12" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="D12" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="E12" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="F12" t="n">
-        <v>7048</v>
+        <v>5505.6132</v>
       </c>
       <c r="G12" t="n">
-        <v>49.74666666666668</v>
+        <v>49.72666666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="E13" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F13" t="n">
-        <v>13000</v>
+        <v>7048</v>
       </c>
       <c r="G13" t="n">
-        <v>49.77166666666668</v>
+        <v>49.74666666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C14" t="n">
         <v>50</v>
       </c>
-      <c r="C14" t="n">
-        <v>50.1</v>
-      </c>
       <c r="D14" t="n">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F14" t="n">
-        <v>12870.741</v>
+        <v>13000</v>
       </c>
       <c r="G14" t="n">
-        <v>49.79166666666667</v>
+        <v>49.77166666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="D15" t="n">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="E15" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>32400</v>
+        <v>12870.741</v>
       </c>
       <c r="G15" t="n">
-        <v>49.80333333333333</v>
+        <v>49.79166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C16" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="D16" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E16" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F16" t="n">
-        <v>290.5695</v>
+        <v>32400</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81666666666667</v>
+        <v>49.80333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>49.7</v>
       </c>
       <c r="F17" t="n">
-        <v>148.5516</v>
+        <v>290.5695</v>
       </c>
       <c r="G17" t="n">
-        <v>49.83</v>
+        <v>49.81666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C18" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="D18" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="E18" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F18" t="n">
-        <v>5030</v>
+        <v>148.5516</v>
       </c>
       <c r="G18" t="n">
-        <v>49.84666666666666</v>
+        <v>49.83</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C19" t="n">
         <v>49.9</v>
@@ -1037,13 +1037,13 @@
         <v>49.9</v>
       </c>
       <c r="E19" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>5030</v>
       </c>
       <c r="G19" t="n">
-        <v>49.86333333333333</v>
+        <v>49.84666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="C20" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="D20" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="E20" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>49.87166666666666</v>
+        <v>49.86333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C21" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="D21" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="E21" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F21" t="n">
-        <v>3875.9793</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>49.88166666666666</v>
+        <v>49.87166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="C22" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="D22" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="E22" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="F22" t="n">
-        <v>25407.8611</v>
+        <v>3875.9793</v>
       </c>
       <c r="G22" t="n">
-        <v>49.885</v>
+        <v>49.88166666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>49.3</v>
       </c>
       <c r="F23" t="n">
-        <v>20384.1187</v>
+        <v>25407.8611</v>
       </c>
       <c r="G23" t="n">
-        <v>49.88666666666667</v>
+        <v>49.885</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>49.3</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49.3</v>
       </c>
       <c r="E24" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F24" t="n">
-        <v>6200</v>
+        <v>20384.1187</v>
       </c>
       <c r="G24" t="n">
-        <v>49.895</v>
+        <v>49.88666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,31 +1238,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="C25" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="F25" t="n">
-        <v>2182.9062</v>
+        <v>6200</v>
       </c>
       <c r="G25" t="n">
-        <v>49.89666666666667</v>
+        <v>49.895</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>49.3</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1285,7 +1289,7 @@
         <v>49.5</v>
       </c>
       <c r="F26" t="n">
-        <v>117.0938</v>
+        <v>2182.9062</v>
       </c>
       <c r="G26" t="n">
         <v>49.89666666666667</v>
@@ -1297,8 +1301,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1318,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C27" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D27" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E27" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F27" t="n">
-        <v>6194.7684</v>
+        <v>117.0938</v>
       </c>
       <c r="G27" t="n">
-        <v>49.89833333333333</v>
+        <v>49.89666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1342,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C28" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="D28" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E28" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="F28" t="n">
-        <v>2844.9387</v>
+        <v>6194.7684</v>
       </c>
       <c r="G28" t="n">
-        <v>49.905</v>
+        <v>49.89833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="C29" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="D29" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="E29" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="F29" t="n">
-        <v>3805.2316</v>
+        <v>2844.9387</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90666666666667</v>
+        <v>49.905</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C30" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D30" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E30" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F30" t="n">
-        <v>25312.1967</v>
+        <v>3805.2316</v>
       </c>
       <c r="G30" t="n">
-        <v>49.905</v>
+        <v>49.90666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1476,10 @@
         <v>49.4</v>
       </c>
       <c r="F31" t="n">
-        <v>224.2114</v>
+        <v>25312.1967</v>
       </c>
       <c r="G31" t="n">
-        <v>49.90666666666667</v>
+        <v>49.905</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,19 +1499,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C32" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D32" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E32" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F32" t="n">
-        <v>282.1795</v>
+        <v>224.2114</v>
       </c>
       <c r="G32" t="n">
         <v>49.90666666666667</v>
@@ -1518,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="C33" t="n">
         <v>49.3</v>
@@ -1527,13 +1543,13 @@
         <v>49.3</v>
       </c>
       <c r="E33" t="n">
-        <v>48.8</v>
+        <v>49.3</v>
       </c>
       <c r="F33" t="n">
-        <v>17653.3933</v>
+        <v>282.1795</v>
       </c>
       <c r="G33" t="n">
-        <v>49.90333333333334</v>
+        <v>49.90666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C34" t="n">
         <v>49.3</v>
@@ -1562,13 +1578,13 @@
         <v>49.3</v>
       </c>
       <c r="E34" t="n">
-        <v>49.3</v>
+        <v>48.8</v>
       </c>
       <c r="F34" t="n">
-        <v>16864.7433</v>
+        <v>17653.3933</v>
       </c>
       <c r="G34" t="n">
-        <v>49.90000000000001</v>
+        <v>49.90333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,35 +1604,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C35" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D35" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E35" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F35" t="n">
-        <v>21767.21</v>
+        <v>16864.7433</v>
       </c>
       <c r="G35" t="n">
-        <v>49.89833333333334</v>
+        <v>49.90000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>49.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1639,485 +1651,425 @@
         <v>49.4</v>
       </c>
       <c r="F36" t="n">
+        <v>21767.21</v>
+      </c>
+      <c r="G36" t="n">
+        <v>49.89833333333334</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F37" t="n">
         <v>2151496.36</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G37" t="n">
         <v>49.89666666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4832477.86</v>
+      </c>
+      <c r="G38" t="n">
+        <v>49.89500000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1761993.4317</v>
+      </c>
+      <c r="G39" t="n">
+        <v>49.88833333333334</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3267048.3027</v>
+      </c>
+      <c r="G40" t="n">
+        <v>49.88166666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3219179.4631</v>
+      </c>
+      <c r="G41" t="n">
+        <v>49.87833333333334</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3207412.2532</v>
+      </c>
+      <c r="G42" t="n">
+        <v>49.87666666666668</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3231146.673</v>
+      </c>
+      <c r="G43" t="n">
+        <v>49.87166666666668</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3219179.4631</v>
+      </c>
+      <c r="G44" t="n">
+        <v>49.86666666666669</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2321638.7206</v>
+      </c>
+      <c r="G45" t="n">
+        <v>49.86000000000002</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8232.790300000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>49.85166666666669</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4832477.86</v>
-      </c>
-      <c r="G37" t="n">
-        <v>49.89500000000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>38799</v>
+      </c>
+      <c r="G47" t="n">
+        <v>49.85000000000002</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1761993.4317</v>
-      </c>
-      <c r="G38" t="n">
-        <v>49.88833333333334</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3267048.3027</v>
-      </c>
-      <c r="G39" t="n">
-        <v>49.88166666666667</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3219179.4631</v>
-      </c>
-      <c r="G40" t="n">
-        <v>49.87833333333334</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C41" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E41" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3207412.2532</v>
-      </c>
-      <c r="G41" t="n">
-        <v>49.87666666666668</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D42" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3231146.673</v>
-      </c>
-      <c r="G42" t="n">
-        <v>49.87166666666668</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3219179.4631</v>
-      </c>
-      <c r="G43" t="n">
-        <v>49.86666666666669</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C44" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D44" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2321638.7206</v>
-      </c>
-      <c r="G44" t="n">
-        <v>49.86000000000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D45" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E45" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>8232.790300000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>49.85166666666669</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>38799</v>
-      </c>
-      <c r="G46" t="n">
-        <v>49.85000000000002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3045.5881</v>
-      </c>
-      <c r="G47" t="n">
-        <v>49.84333333333336</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2139,26 +2091,24 @@
         <v>49.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1002.0237</v>
+        <v>3045.5881</v>
       </c>
       <c r="G48" t="n">
-        <v>49.83500000000002</v>
+        <v>49.84333333333336</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>49.8</v>
+      </c>
       <c r="K48" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.8</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2180,24 +2130,26 @@
         <v>49.5</v>
       </c>
       <c r="F49" t="n">
-        <v>6391.9998</v>
+        <v>1002.0237</v>
       </c>
       <c r="G49" t="n">
-        <v>49.82500000000002</v>
+        <v>49.83500000000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>49.5</v>
+      </c>
       <c r="K49" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2221,24 +2173,26 @@
         <v>49.5</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>6391.9998</v>
       </c>
       <c r="G50" t="n">
-        <v>49.81166666666669</v>
+        <v>49.82500000000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>49.5</v>
+      </c>
       <c r="K50" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2250,40 +2204,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C51" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D51" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E51" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2008.03212851</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>49.80333333333336</v>
+        <v>49.81166666666669</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2293,40 +2239,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C52" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="D52" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="E52" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="F52" t="n">
-        <v>15101.788</v>
+        <v>2008.03212851</v>
       </c>
       <c r="G52" t="n">
-        <v>49.78833333333335</v>
+        <v>49.80333333333336</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2336,40 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C53" t="n">
         <v>49.4</v>
       </c>
       <c r="D53" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E53" t="n">
         <v>49.4</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>15101.788</v>
       </c>
       <c r="G53" t="n">
-        <v>49.77333333333335</v>
+        <v>49.78833333333335</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2391,28 +2321,20 @@
         <v>49.4</v>
       </c>
       <c r="F54" t="n">
-        <v>11600</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>49.75666666666668</v>
+        <v>49.77333333333335</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2422,40 +2344,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F55" t="n">
-        <v>1026.8734</v>
+        <v>11600</v>
       </c>
       <c r="G55" t="n">
-        <v>49.74166666666668</v>
+        <v>49.75666666666668</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2477,10 +2391,10 @@
         <v>49.5</v>
       </c>
       <c r="F56" t="n">
-        <v>1597.9999</v>
+        <v>1026.8734</v>
       </c>
       <c r="G56" t="n">
-        <v>49.72333333333335</v>
+        <v>49.74166666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2489,14 +2403,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2518,10 +2426,10 @@
         <v>49.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1594.0049</v>
+        <v>1597.9999</v>
       </c>
       <c r="G57" t="n">
-        <v>49.71000000000002</v>
+        <v>49.72333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2530,14 +2438,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2559,10 +2461,10 @@
         <v>49.5</v>
       </c>
       <c r="F58" t="n">
-        <v>728.9999</v>
+        <v>1594.0049</v>
       </c>
       <c r="G58" t="n">
-        <v>49.69166666666668</v>
+        <v>49.71000000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2571,14 +2473,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2600,10 +2496,10 @@
         <v>49.5</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>728.9999</v>
       </c>
       <c r="G59" t="n">
-        <v>49.67333333333335</v>
+        <v>49.69166666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2612,14 +2508,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2635,16 +2525,16 @@
         <v>49.5</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="E60" t="n">
         <v>49.5</v>
       </c>
       <c r="F60" t="n">
-        <v>200888.538</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>49.65666666666668</v>
+        <v>49.67333333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2653,14 +2543,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2676,16 +2560,16 @@
         <v>49.5</v>
       </c>
       <c r="D61" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="E61" t="n">
         <v>49.5</v>
       </c>
       <c r="F61" t="n">
-        <v>22402.2323</v>
+        <v>200888.538</v>
       </c>
       <c r="G61" t="n">
-        <v>49.64333333333335</v>
+        <v>49.65666666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2694,14 +2578,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2723,10 +2601,10 @@
         <v>49.5</v>
       </c>
       <c r="F62" t="n">
-        <v>10060.1153</v>
+        <v>22402.2323</v>
       </c>
       <c r="G62" t="n">
-        <v>49.63000000000001</v>
+        <v>49.64333333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2735,14 +2613,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2764,10 +2636,10 @@
         <v>49.5</v>
       </c>
       <c r="F63" t="n">
-        <v>1052.2508</v>
+        <v>10060.1153</v>
       </c>
       <c r="G63" t="n">
-        <v>49.61166666666668</v>
+        <v>49.63000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2776,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2793,22 +2659,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C64" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D64" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E64" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F64" t="n">
-        <v>6974.2579</v>
+        <v>1052.2508</v>
       </c>
       <c r="G64" t="n">
-        <v>49.59000000000002</v>
+        <v>49.61166666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2817,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2846,10 +2706,10 @@
         <v>49.4</v>
       </c>
       <c r="F65" t="n">
-        <v>6696.9843</v>
+        <v>6974.2579</v>
       </c>
       <c r="G65" t="n">
-        <v>49.57333333333335</v>
+        <v>49.59000000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2858,14 +2718,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2875,22 +2729,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C66" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D66" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E66" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F66" t="n">
-        <v>44.70824949</v>
+        <v>6696.9843</v>
       </c>
       <c r="G66" t="n">
-        <v>49.56500000000002</v>
+        <v>49.57333333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2899,14 +2753,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2916,22 +2764,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C67" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="D67" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E67" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F67" t="n">
-        <v>15200</v>
+        <v>44.70824949</v>
       </c>
       <c r="G67" t="n">
-        <v>49.55166666666669</v>
+        <v>49.56500000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2940,14 +2788,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2957,22 +2799,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C68" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D68" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="E68" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F68" t="n">
-        <v>3904.0113</v>
+        <v>15200</v>
       </c>
       <c r="G68" t="n">
-        <v>49.54833333333335</v>
+        <v>49.55166666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2981,14 +2823,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3001,19 +2837,19 @@
         <v>49.5</v>
       </c>
       <c r="C69" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D69" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E69" t="n">
         <v>49.5</v>
       </c>
       <c r="F69" t="n">
-        <v>10000</v>
+        <v>3904.0113</v>
       </c>
       <c r="G69" t="n">
-        <v>49.54500000000002</v>
+        <v>49.54833333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3022,14 +2858,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3051,10 +2881,10 @@
         <v>49.5</v>
       </c>
       <c r="F70" t="n">
-        <v>1716.7319</v>
+        <v>10000</v>
       </c>
       <c r="G70" t="n">
-        <v>49.54000000000001</v>
+        <v>49.54500000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3063,14 +2893,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3083,19 +2907,19 @@
         <v>49.5</v>
       </c>
       <c r="C71" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D71" t="n">
         <v>49.5</v>
       </c>
       <c r="E71" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F71" t="n">
-        <v>30000.2007</v>
+        <v>1716.7319</v>
       </c>
       <c r="G71" t="n">
-        <v>49.53166666666668</v>
+        <v>49.54000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3104,14 +2928,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3121,22 +2939,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C72" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D72" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E72" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="F72" t="n">
-        <v>42.33870967</v>
+        <v>30000.2007</v>
       </c>
       <c r="G72" t="n">
-        <v>49.53000000000002</v>
+        <v>49.53166666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3145,14 +2963,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3162,22 +2974,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C73" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D73" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E73" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F73" t="n">
-        <v>4461.9264</v>
+        <v>42.33870967</v>
       </c>
       <c r="G73" t="n">
-        <v>49.52166666666668</v>
+        <v>49.53000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3186,14 +2998,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3203,22 +3009,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C74" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="D74" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="E74" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F74" t="n">
-        <v>6736.2736</v>
+        <v>4461.9264</v>
       </c>
       <c r="G74" t="n">
-        <v>49.52000000000002</v>
+        <v>49.52166666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3227,14 +3033,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3244,22 +3044,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="C75" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="F75" t="n">
-        <v>733.5302</v>
+        <v>6736.2736</v>
       </c>
       <c r="G75" t="n">
-        <v>49.52333333333335</v>
+        <v>49.52000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3268,14 +3068,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3297,10 +3091,10 @@
         <v>49.8</v>
       </c>
       <c r="F76" t="n">
-        <v>1599.1967</v>
+        <v>733.5302</v>
       </c>
       <c r="G76" t="n">
-        <v>49.52500000000003</v>
+        <v>49.52333333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3309,14 +3103,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3326,19 +3114,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C77" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D77" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E77" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="F77" t="n">
-        <v>9104.006799999999</v>
+        <v>1599.1967</v>
       </c>
       <c r="G77" t="n">
         <v>49.52500000000003</v>
@@ -3350,14 +3138,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3367,22 +3149,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C78" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D78" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E78" t="n">
         <v>49.6</v>
       </c>
       <c r="F78" t="n">
-        <v>5379.38</v>
+        <v>9104.006799999999</v>
       </c>
       <c r="G78" t="n">
-        <v>49.52000000000002</v>
+        <v>49.52500000000003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3391,14 +3173,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3184,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C79" t="n">
         <v>49.6</v>
       </c>
       <c r="D79" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="E79" t="n">
         <v>49.6</v>
       </c>
       <c r="F79" t="n">
-        <v>10297.3054</v>
+        <v>5379.38</v>
       </c>
       <c r="G79" t="n">
-        <v>49.51500000000002</v>
+        <v>49.52000000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3432,14 +3208,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3449,22 +3219,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C80" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="D80" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="E80" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="F80" t="n">
-        <v>2022.1378</v>
+        <v>10297.3054</v>
       </c>
       <c r="G80" t="n">
-        <v>49.52000000000002</v>
+        <v>49.51500000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3473,14 +3243,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3502,10 +3266,10 @@
         <v>49.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1150</v>
+        <v>2022.1378</v>
       </c>
       <c r="G81" t="n">
-        <v>49.52333333333336</v>
+        <v>49.52000000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3514,14 +3278,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3531,22 +3289,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C82" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="D82" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="E82" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F82" t="n">
-        <v>28600</v>
+        <v>1150</v>
       </c>
       <c r="G82" t="n">
-        <v>49.5366666666667</v>
+        <v>49.52333333333336</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3555,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3324,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C83" t="n">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="D83" t="n">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="E83" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="F83" t="n">
-        <v>128.6419</v>
+        <v>28600</v>
       </c>
       <c r="G83" t="n">
-        <v>49.5466666666667</v>
+        <v>49.5366666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3596,14 +3348,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3625,10 +3371,10 @@
         <v>49.9</v>
       </c>
       <c r="F84" t="n">
-        <v>5774</v>
+        <v>128.6419</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54500000000003</v>
+        <v>49.5466666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3637,14 +3383,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3666,10 +3406,10 @@
         <v>49.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1004.2275</v>
+        <v>5774</v>
       </c>
       <c r="G85" t="n">
-        <v>49.5516666666667</v>
+        <v>49.54500000000003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3678,14 +3418,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3707,10 +3441,10 @@
         <v>49.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>1004.2275</v>
       </c>
       <c r="G86" t="n">
-        <v>49.55833333333337</v>
+        <v>49.5516666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3719,14 +3453,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3736,22 +3464,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="C87" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="D87" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="E87" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="F87" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>49.56833333333336</v>
+        <v>49.55833333333337</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3760,14 +3488,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3777,22 +3499,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="C88" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="E88" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G88" t="n">
-        <v>49.57000000000003</v>
+        <v>49.56833333333336</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3801,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +3534,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="C89" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E89" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="F89" t="n">
-        <v>85.2788</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>49.58000000000003</v>
+        <v>49.57000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3842,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3859,22 +3569,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="C90" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="D90" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="E90" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="F90" t="n">
-        <v>1004.2275</v>
+        <v>85.2788</v>
       </c>
       <c r="G90" t="n">
-        <v>49.59000000000002</v>
+        <v>49.58000000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3883,14 +3593,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3903,19 +3607,19 @@
         <v>50</v>
       </c>
       <c r="C91" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>50</v>
       </c>
       <c r="E91" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="F91" t="n">
-        <v>40000</v>
+        <v>1004.2275</v>
       </c>
       <c r="G91" t="n">
-        <v>49.59833333333336</v>
+        <v>49.59000000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3924,14 +3628,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3941,22 +3639,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C92" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="D92" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E92" t="n">
         <v>49.9</v>
       </c>
       <c r="F92" t="n">
-        <v>18608.1274</v>
+        <v>40000</v>
       </c>
       <c r="G92" t="n">
-        <v>49.61333333333335</v>
+        <v>49.59833333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3965,14 +3663,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +3674,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>50.3</v>
+        <v>49.9</v>
       </c>
       <c r="C93" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="D93" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="E93" t="n">
-        <v>50.3</v>
+        <v>49.9</v>
       </c>
       <c r="F93" t="n">
-        <v>75.2286</v>
+        <v>18608.1274</v>
       </c>
       <c r="G93" t="n">
-        <v>49.63000000000002</v>
+        <v>49.61333333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4006,14 +3698,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4023,22 +3709,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C94" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="D94" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="E94" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="F94" t="n">
-        <v>400</v>
+        <v>75.2286</v>
       </c>
       <c r="G94" t="n">
-        <v>49.64500000000001</v>
+        <v>49.63000000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4047,14 +3733,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4076,10 +3756,10 @@
         <v>50.2</v>
       </c>
       <c r="F95" t="n">
-        <v>2132.1235</v>
+        <v>400</v>
       </c>
       <c r="G95" t="n">
-        <v>49.65833333333334</v>
+        <v>49.64500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4088,14 +3768,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4105,22 +3779,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="C96" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="D96" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="E96" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="F96" t="n">
-        <v>56425.8152</v>
+        <v>2132.1235</v>
       </c>
       <c r="G96" t="n">
-        <v>49.66500000000001</v>
+        <v>49.65833333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4129,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4146,22 +3814,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="C97" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D97" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="E97" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="F97" t="n">
-        <v>23105.9716</v>
+        <v>56425.8152</v>
       </c>
       <c r="G97" t="n">
-        <v>49.67</v>
+        <v>49.66500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4170,14 +3838,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4190,19 +3852,19 @@
         <v>49.7</v>
       </c>
       <c r="C98" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D98" t="n">
         <v>49.7</v>
       </c>
       <c r="E98" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F98" t="n">
-        <v>13827.8209</v>
+        <v>23105.9716</v>
       </c>
       <c r="G98" t="n">
-        <v>49.67333333333333</v>
+        <v>49.67</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4211,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4231,19 +3887,19 @@
         <v>49.7</v>
       </c>
       <c r="C99" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="D99" t="n">
         <v>49.7</v>
       </c>
       <c r="E99" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F99" t="n">
-        <v>2293.8028</v>
+        <v>13827.8209</v>
       </c>
       <c r="G99" t="n">
-        <v>49.67833333333333</v>
+        <v>49.67333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4252,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4281,10 +3931,10 @@
         <v>49.7</v>
       </c>
       <c r="F100" t="n">
-        <v>17600</v>
+        <v>2293.8028</v>
       </c>
       <c r="G100" t="n">
-        <v>49.68333333333332</v>
+        <v>49.67833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4293,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4322,10 +3966,10 @@
         <v>49.7</v>
       </c>
       <c r="F101" t="n">
-        <v>2033</v>
+        <v>17600</v>
       </c>
       <c r="G101" t="n">
-        <v>49.68833333333332</v>
+        <v>49.68333333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4334,14 +3978,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4363,10 +4001,10 @@
         <v>49.7</v>
       </c>
       <c r="F102" t="n">
-        <v>12542.9998</v>
+        <v>2033</v>
       </c>
       <c r="G102" t="n">
-        <v>49.69333333333331</v>
+        <v>49.68833333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4375,14 +4013,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4392,22 +4024,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C103" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D103" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E103" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F103" t="n">
-        <v>1460</v>
+        <v>12542.9998</v>
       </c>
       <c r="G103" t="n">
-        <v>49.69666666666664</v>
+        <v>49.69333333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4416,14 +4048,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4433,22 +4059,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C104" t="n">
         <v>49.6</v>
       </c>
       <c r="D104" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="E104" t="n">
         <v>49.6</v>
       </c>
       <c r="F104" t="n">
-        <v>44622.4341</v>
+        <v>1460</v>
       </c>
       <c r="G104" t="n">
-        <v>49.69999999999997</v>
+        <v>49.69666666666664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4457,14 +4083,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4474,22 +4094,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C105" t="n">
         <v>49.6</v>
       </c>
       <c r="D105" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E105" t="n">
         <v>49.6</v>
       </c>
       <c r="F105" t="n">
-        <v>2524</v>
+        <v>44622.4341</v>
       </c>
       <c r="G105" t="n">
-        <v>49.7033333333333</v>
+        <v>49.69999999999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4498,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4527,10 +4141,10 @@
         <v>49.6</v>
       </c>
       <c r="F106" t="n">
-        <v>19433.6366</v>
+        <v>2524</v>
       </c>
       <c r="G106" t="n">
-        <v>49.69999999999997</v>
+        <v>49.7033333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4539,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4556,19 +4164,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C107" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D107" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E107" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F107" t="n">
-        <v>61.4501</v>
+        <v>19433.6366</v>
       </c>
       <c r="G107" t="n">
         <v>49.69999999999997</v>
@@ -4580,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4597,22 +4199,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F108" t="n">
-        <v>11200</v>
+        <v>61.4501</v>
       </c>
       <c r="G108" t="n">
-        <v>49.7033333333333</v>
+        <v>49.69999999999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4621,14 +4223,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4650,10 +4246,10 @@
         <v>49.7</v>
       </c>
       <c r="F109" t="n">
-        <v>20000</v>
+        <v>11200</v>
       </c>
       <c r="G109" t="n">
-        <v>49.70666666666663</v>
+        <v>49.7033333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4662,14 +4258,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4691,10 +4281,10 @@
         <v>49.7</v>
       </c>
       <c r="F110" t="n">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="G110" t="n">
-        <v>49.70999999999996</v>
+        <v>49.70666666666663</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4703,14 +4293,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4720,22 +4304,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C111" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D111" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E111" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F111" t="n">
-        <v>7337.612</v>
+        <v>20200</v>
       </c>
       <c r="G111" t="n">
-        <v>49.70499999999996</v>
+        <v>49.70999999999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4744,14 +4328,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4761,22 +4339,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C112" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D112" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E112" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F112" t="n">
-        <v>57626</v>
+        <v>7337.612</v>
       </c>
       <c r="G112" t="n">
-        <v>49.70833333333329</v>
+        <v>49.70499999999996</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4785,14 +4363,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4802,22 +4374,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C113" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D113" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E113" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F113" t="n">
-        <v>2704.9609</v>
+        <v>57626</v>
       </c>
       <c r="G113" t="n">
-        <v>49.70999999999995</v>
+        <v>49.70833333333329</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4826,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4855,10 +4421,10 @@
         <v>49.5</v>
       </c>
       <c r="F114" t="n">
-        <v>13400</v>
+        <v>2704.9609</v>
       </c>
       <c r="G114" t="n">
-        <v>49.71166666666662</v>
+        <v>49.70999999999995</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4867,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4896,7 +4456,7 @@
         <v>49.5</v>
       </c>
       <c r="F115" t="n">
-        <v>2869.1019</v>
+        <v>13400</v>
       </c>
       <c r="G115" t="n">
         <v>49.71166666666662</v>
@@ -4908,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4925,22 +4479,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C116" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D116" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E116" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F116" t="n">
-        <v>23789.3472</v>
+        <v>2869.1019</v>
       </c>
       <c r="G116" t="n">
-        <v>49.70999999999995</v>
+        <v>49.71166666666662</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4949,14 +4503,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4966,22 +4514,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C117" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D117" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E117" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F117" t="n">
-        <v>58200</v>
+        <v>23789.3472</v>
       </c>
       <c r="G117" t="n">
-        <v>49.71333333333328</v>
+        <v>49.70999999999995</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4990,14 +4538,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5007,22 +4549,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C118" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="D118" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E118" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F118" t="n">
-        <v>10000</v>
+        <v>58200</v>
       </c>
       <c r="G118" t="n">
-        <v>49.71833333333328</v>
+        <v>49.71333333333328</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5031,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5048,7 +4584,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C119" t="n">
         <v>49.8</v>
@@ -5057,13 +4593,13 @@
         <v>49.8</v>
       </c>
       <c r="E119" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F119" t="n">
-        <v>1445.5913</v>
+        <v>10000</v>
       </c>
       <c r="G119" t="n">
-        <v>49.72333333333329</v>
+        <v>49.71833333333328</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5072,14 +4608,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5089,39 +4619,68 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C120" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D120" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E120" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="F120" t="n">
+        <v>1445.5913</v>
+      </c>
+      <c r="G120" t="n">
+        <v>49.72333333333329</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F121" t="n">
         <v>2288.0683</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G121" t="n">
         <v>49.72666666666662</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10108.0866</v>
       </c>
       <c r="G2" t="n">
+        <v>50.32666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>49.45500000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>16194.3319</v>
       </c>
       <c r="G3" t="n">
+        <v>50.35333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>49.48833333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>27086.76376342</v>
       </c>
       <c r="G4" t="n">
+        <v>50.39333333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>49.52500000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>11896.2919</v>
       </c>
       <c r="G5" t="n">
+        <v>50.43333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>49.56000000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>6954.0475</v>
       </c>
       <c r="G6" t="n">
+        <v>50.43999999999998</v>
+      </c>
+      <c r="H6" t="n">
         <v>49.59000000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3867</v>
       </c>
       <c r="G7" t="n">
+        <v>50.43333333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>49.61500000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>5920.537</v>
       </c>
       <c r="G8" t="n">
+        <v>50.42666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>49.64000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>17194.527</v>
       </c>
       <c r="G9" t="n">
+        <v>50.39333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>49.65833333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>19033.1708</v>
       </c>
       <c r="G10" t="n">
+        <v>50.34666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>49.67833333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>18388.8905</v>
       </c>
       <c r="G11" t="n">
+        <v>50.30666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>49.70333333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5505.6132</v>
       </c>
       <c r="G12" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="H12" t="n">
         <v>49.72666666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>7048</v>
       </c>
       <c r="G13" t="n">
+        <v>50.22000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>49.74666666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>13000</v>
       </c>
       <c r="G14" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="H14" t="n">
         <v>49.77166666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>12870.741</v>
       </c>
       <c r="G15" t="n">
+        <v>50.14666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>49.79166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>32400</v>
       </c>
       <c r="G16" t="n">
+        <v>50.08666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>49.80333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>290.5695</v>
       </c>
       <c r="G17" t="n">
+        <v>50.04666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>49.81666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>148.5516</v>
       </c>
       <c r="G18" t="n">
+        <v>50.00666666666668</v>
+      </c>
+      <c r="H18" t="n">
         <v>49.83</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>5030</v>
       </c>
       <c r="G19" t="n">
+        <v>49.96000000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>49.84666666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>30</v>
       </c>
       <c r="G20" t="n">
+        <v>49.90666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>49.86333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>17</v>
       </c>
       <c r="G21" t="n">
+        <v>49.85333333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>49.87166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3875.9793</v>
       </c>
       <c r="G22" t="n">
+        <v>49.82000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>49.88166666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>25407.8611</v>
       </c>
       <c r="G23" t="n">
+        <v>49.76000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>49.885</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>20384.1187</v>
       </c>
       <c r="G24" t="n">
+        <v>49.72666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>49.88666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,22 +1327,21 @@
         <v>6200</v>
       </c>
       <c r="G25" t="n">
+        <v>49.74666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>49.895</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>49.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,24 +1365,21 @@
         <v>2182.9062</v>
       </c>
       <c r="G26" t="n">
+        <v>49.72666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>49.89666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1333,24 +1403,21 @@
         <v>117.0938</v>
       </c>
       <c r="G27" t="n">
+        <v>49.70000000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>49.89666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1441,21 @@
         <v>6194.7684</v>
       </c>
       <c r="G28" t="n">
+        <v>49.69333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>49.89833333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1479,21 @@
         <v>2844.9387</v>
       </c>
       <c r="G29" t="n">
+        <v>49.68666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>49.905</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1517,21 @@
         <v>3805.2316</v>
       </c>
       <c r="G30" t="n">
+        <v>49.65333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>49.90666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1555,21 @@
         <v>25312.1967</v>
       </c>
       <c r="G31" t="n">
+        <v>49.64</v>
+      </c>
+      <c r="H31" t="n">
         <v>49.905</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1593,21 @@
         <v>224.2114</v>
       </c>
       <c r="G32" t="n">
+        <v>49.62</v>
+      </c>
+      <c r="H32" t="n">
         <v>49.90666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1631,21 @@
         <v>282.1795</v>
       </c>
       <c r="G33" t="n">
+        <v>49.59333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>49.90666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1669,21 @@
         <v>17653.3933</v>
       </c>
       <c r="G34" t="n">
+        <v>49.55333333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>49.90333333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1707,21 @@
         <v>16864.7433</v>
       </c>
       <c r="G35" t="n">
+        <v>49.51333333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>49.90000000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1745,21 @@
         <v>21767.21</v>
       </c>
       <c r="G36" t="n">
+        <v>49.49999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>49.89833333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1783,21 @@
         <v>2151496.36</v>
       </c>
       <c r="G37" t="n">
+        <v>49.47999999999998</v>
+      </c>
+      <c r="H37" t="n">
         <v>49.89666666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1821,21 @@
         <v>4832477.86</v>
       </c>
       <c r="G38" t="n">
+        <v>49.48666666666665</v>
+      </c>
+      <c r="H38" t="n">
         <v>49.89500000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1859,21 @@
         <v>1761993.4317</v>
       </c>
       <c r="G39" t="n">
+        <v>49.49333333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>49.88833333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1897,21 @@
         <v>3267048.3027</v>
       </c>
       <c r="G40" t="n">
+        <v>49.45333333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>49.88166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1935,21 @@
         <v>3219179.4631</v>
       </c>
       <c r="G41" t="n">
+        <v>49.44666666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>49.87833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +1973,21 @@
         <v>3207412.2532</v>
       </c>
       <c r="G42" t="n">
+        <v>49.43999999999998</v>
+      </c>
+      <c r="H42" t="n">
         <v>49.87666666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2011,21 @@
         <v>3231146.673</v>
       </c>
       <c r="G43" t="n">
+        <v>49.42666666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>49.87166666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2049,21 @@
         <v>3219179.4631</v>
       </c>
       <c r="G44" t="n">
+        <v>49.39333333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>49.86666666666669</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,22 +2087,21 @@
         <v>2321638.7206</v>
       </c>
       <c r="G45" t="n">
+        <v>49.37999999999997</v>
+      </c>
+      <c r="H45" t="n">
         <v>49.86000000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>49.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,26 +2125,21 @@
         <v>8232.790300000001</v>
       </c>
       <c r="G46" t="n">
+        <v>49.37999999999997</v>
+      </c>
+      <c r="H46" t="n">
         <v>49.85166666666669</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,26 +2163,21 @@
         <v>38799</v>
       </c>
       <c r="G47" t="n">
+        <v>49.40666666666664</v>
+      </c>
+      <c r="H47" t="n">
         <v>49.85000000000002</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,22 +2201,21 @@
         <v>3045.5881</v>
       </c>
       <c r="G48" t="n">
+        <v>49.41999999999997</v>
+      </c>
+      <c r="H48" t="n">
         <v>49.84333333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,26 +2239,21 @@
         <v>1002.0237</v>
       </c>
       <c r="G49" t="n">
+        <v>49.43333333333331</v>
+      </c>
+      <c r="H49" t="n">
         <v>49.83500000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2176,26 +2277,21 @@
         <v>6391.9998</v>
       </c>
       <c r="G50" t="n">
+        <v>49.44666666666664</v>
+      </c>
+      <c r="H50" t="n">
         <v>49.82500000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2219,18 +2315,21 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
+        <v>49.45333333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>49.81166666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,18 +2353,21 @@
         <v>2008.03212851</v>
       </c>
       <c r="G52" t="n">
+        <v>49.47999999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>49.80333333333336</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2289,18 +2391,21 @@
         <v>15101.788</v>
       </c>
       <c r="G53" t="n">
+        <v>49.47999999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>49.78833333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2324,18 +2429,21 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
+        <v>49.47999999999998</v>
+      </c>
+      <c r="H54" t="n">
         <v>49.77333333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2359,18 +2467,21 @@
         <v>11600</v>
       </c>
       <c r="G55" t="n">
+        <v>49.47999999999998</v>
+      </c>
+      <c r="H55" t="n">
         <v>49.75666666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,18 +2505,21 @@
         <v>1026.8734</v>
       </c>
       <c r="G56" t="n">
+        <v>49.48666666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>49.74166666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2429,18 +2543,21 @@
         <v>1597.9999</v>
       </c>
       <c r="G57" t="n">
+        <v>49.49333333333332</v>
+      </c>
+      <c r="H57" t="n">
         <v>49.72333333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,18 +2581,21 @@
         <v>1594.0049</v>
       </c>
       <c r="G58" t="n">
+        <v>49.49999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>49.71000000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2499,18 +2619,21 @@
         <v>728.9999</v>
       </c>
       <c r="G59" t="n">
+        <v>49.50666666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>49.69166666666668</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,18 +2657,21 @@
         <v>2000</v>
       </c>
       <c r="G60" t="n">
+        <v>49.51333333333332</v>
+      </c>
+      <c r="H60" t="n">
         <v>49.67333333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,18 +2695,21 @@
         <v>200888.538</v>
       </c>
       <c r="G61" t="n">
+        <v>49.51999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>49.65666666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,18 +2733,21 @@
         <v>22402.2323</v>
       </c>
       <c r="G62" t="n">
+        <v>49.49999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>49.64333333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,18 +2771,25 @@
         <v>10060.1153</v>
       </c>
       <c r="G63" t="n">
+        <v>49.49999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>49.63000000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,18 +2813,29 @@
         <v>1052.2508</v>
       </c>
       <c r="G64" t="n">
+        <v>49.49999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>49.61166666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2709,18 +2859,29 @@
         <v>6974.2579</v>
       </c>
       <c r="G65" t="n">
+        <v>49.49333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>49.59000000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,18 +2905,25 @@
         <v>6696.9843</v>
       </c>
       <c r="G66" t="n">
+        <v>49.48666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>49.57333333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2779,18 +2947,29 @@
         <v>44.70824949</v>
       </c>
       <c r="G67" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="H67" t="n">
         <v>49.56500000000002</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,18 +2993,29 @@
         <v>15200</v>
       </c>
       <c r="G68" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="H68" t="n">
         <v>49.55166666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L68" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2849,18 +3039,25 @@
         <v>3904.0113</v>
       </c>
       <c r="G69" t="n">
+        <v>49.49333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>49.54833333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,18 +3081,29 @@
         <v>10000</v>
       </c>
       <c r="G70" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="H70" t="n">
         <v>49.54500000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L70" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,18 +3127,29 @@
         <v>1716.7319</v>
       </c>
       <c r="G71" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="H71" t="n">
         <v>49.54000000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,18 +3173,29 @@
         <v>30000.2007</v>
       </c>
       <c r="G72" t="n">
+        <v>49.49333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>49.53166666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L72" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2989,18 +3219,29 @@
         <v>42.33870967</v>
       </c>
       <c r="G73" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="H73" t="n">
         <v>49.53000000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L73" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,18 +3265,29 @@
         <v>4461.9264</v>
       </c>
       <c r="G74" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="H74" t="n">
         <v>49.52166666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L74" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3059,18 +3311,29 @@
         <v>6736.2736</v>
       </c>
       <c r="G75" t="n">
+        <v>49.53333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>49.52000000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,18 +3357,29 @@
         <v>733.5302</v>
       </c>
       <c r="G76" t="n">
+        <v>49.55333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>49.52333333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>50</v>
+      </c>
+      <c r="L76" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3129,18 +3403,27 @@
         <v>1599.1967</v>
       </c>
       <c r="G77" t="n">
+        <v>49.57333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>49.52500000000003</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,18 +3447,27 @@
         <v>9104.006799999999</v>
       </c>
       <c r="G78" t="n">
+        <v>49.58666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>49.52500000000003</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,18 +3491,29 @@
         <v>5379.38</v>
       </c>
       <c r="G79" t="n">
+        <v>49.59333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>49.52000000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L79" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,18 +3537,29 @@
         <v>10297.3054</v>
       </c>
       <c r="G80" t="n">
+        <v>49.60666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>49.51500000000002</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L80" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3269,18 +3583,29 @@
         <v>2022.1378</v>
       </c>
       <c r="G81" t="n">
+        <v>49.64</v>
+      </c>
+      <c r="H81" t="n">
         <v>49.52000000000002</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L81" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,18 +3629,29 @@
         <v>1150</v>
       </c>
       <c r="G82" t="n">
+        <v>49.65333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>49.52333333333336</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="L82" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3339,18 +3675,29 @@
         <v>28600</v>
       </c>
       <c r="G83" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="H83" t="n">
         <v>49.5366666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="L83" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,18 +3721,27 @@
         <v>128.6419</v>
       </c>
       <c r="G84" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="H84" t="n">
         <v>49.5466666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3409,18 +3765,27 @@
         <v>5774</v>
       </c>
       <c r="G85" t="n">
+        <v>49.74666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>49.54500000000003</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,18 +3809,27 @@
         <v>1004.2275</v>
       </c>
       <c r="G86" t="n">
+        <v>49.77333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>49.5516666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3479,18 +3853,27 @@
         <v>2000</v>
       </c>
       <c r="G87" t="n">
+        <v>49.80666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>49.55833333333337</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,18 +3897,27 @@
         <v>10000</v>
       </c>
       <c r="G88" t="n">
+        <v>49.84666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>49.56833333333336</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3549,18 +3941,27 @@
         <v>1000</v>
       </c>
       <c r="G89" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="H89" t="n">
         <v>49.57000000000003</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,18 +3985,27 @@
         <v>85.2788</v>
       </c>
       <c r="G90" t="n">
+        <v>49.89333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>49.58000000000003</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3619,18 +4029,27 @@
         <v>1004.2275</v>
       </c>
       <c r="G91" t="n">
+        <v>49.90666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>49.59000000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,18 +4073,27 @@
         <v>40000</v>
       </c>
       <c r="G92" t="n">
+        <v>49.91333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>49.59833333333336</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3689,18 +4117,27 @@
         <v>18608.1274</v>
       </c>
       <c r="G93" t="n">
+        <v>49.94666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>49.61333333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,18 +4161,27 @@
         <v>75.2286</v>
       </c>
       <c r="G94" t="n">
+        <v>49.99333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>49.63000000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,18 +4205,27 @@
         <v>400</v>
       </c>
       <c r="G95" t="n">
+        <v>50.03333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>49.64500000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,18 +4249,27 @@
         <v>2132.1235</v>
       </c>
       <c r="G96" t="n">
+        <v>50.05333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>49.65833333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3829,18 +4293,27 @@
         <v>56425.8152</v>
       </c>
       <c r="G97" t="n">
+        <v>50.04666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>49.66500000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,18 +4337,27 @@
         <v>23105.9716</v>
       </c>
       <c r="G98" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="H98" t="n">
         <v>49.67</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3899,18 +4381,27 @@
         <v>13827.8209</v>
       </c>
       <c r="G99" t="n">
+        <v>50.00000000000001</v>
+      </c>
+      <c r="H99" t="n">
         <v>49.67333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,18 +4425,27 @@
         <v>2293.8028</v>
       </c>
       <c r="G100" t="n">
+        <v>49.98666666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>49.67833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3969,18 +4469,27 @@
         <v>17600</v>
       </c>
       <c r="G101" t="n">
+        <v>49.97333333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>49.68333333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,18 +4513,27 @@
         <v>2033</v>
       </c>
       <c r="G102" t="n">
+        <v>49.96000000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>49.68833333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4039,18 +4557,27 @@
         <v>12542.9998</v>
       </c>
       <c r="G103" t="n">
+        <v>49.92666666666669</v>
+      </c>
+      <c r="H103" t="n">
         <v>49.69333333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,18 +4601,27 @@
         <v>1460</v>
       </c>
       <c r="G104" t="n">
+        <v>49.90000000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>49.69666666666664</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4109,18 +4645,27 @@
         <v>44622.4341</v>
       </c>
       <c r="G105" t="n">
+        <v>49.86000000000002</v>
+      </c>
+      <c r="H105" t="n">
         <v>49.69999999999997</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,18 +4689,27 @@
         <v>2524</v>
       </c>
       <c r="G106" t="n">
+        <v>49.83333333333336</v>
+      </c>
+      <c r="H106" t="n">
         <v>49.7033333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4179,18 +4733,27 @@
         <v>19433.6366</v>
       </c>
       <c r="G107" t="n">
+        <v>49.81333333333336</v>
+      </c>
+      <c r="H107" t="n">
         <v>49.69999999999997</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,18 +4777,27 @@
         <v>61.4501</v>
       </c>
       <c r="G108" t="n">
+        <v>49.76666666666669</v>
+      </c>
+      <c r="H108" t="n">
         <v>49.69999999999997</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,18 +4821,29 @@
         <v>11200</v>
       </c>
       <c r="G109" t="n">
+        <v>49.72666666666669</v>
+      </c>
+      <c r="H109" t="n">
         <v>49.7033333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,18 +4867,29 @@
         <v>20000</v>
       </c>
       <c r="G110" t="n">
+        <v>49.69333333333336</v>
+      </c>
+      <c r="H110" t="n">
         <v>49.70666666666663</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L110" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4319,18 +4913,27 @@
         <v>20200</v>
       </c>
       <c r="G111" t="n">
+        <v>49.66000000000003</v>
+      </c>
+      <c r="H111" t="n">
         <v>49.70999999999996</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,18 +4957,27 @@
         <v>7337.612</v>
       </c>
       <c r="G112" t="n">
+        <v>49.64000000000003</v>
+      </c>
+      <c r="H112" t="n">
         <v>49.70499999999996</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4389,18 +5001,29 @@
         <v>57626</v>
       </c>
       <c r="G113" t="n">
+        <v>49.63333333333336</v>
+      </c>
+      <c r="H113" t="n">
         <v>49.70833333333329</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L113" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,18 +5047,29 @@
         <v>2704.9609</v>
       </c>
       <c r="G114" t="n">
+        <v>49.62666666666669</v>
+      </c>
+      <c r="H114" t="n">
         <v>49.70999999999995</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L114" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,18 +5093,29 @@
         <v>13400</v>
       </c>
       <c r="G115" t="n">
+        <v>49.61333333333336</v>
+      </c>
+      <c r="H115" t="n">
         <v>49.71166666666662</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L115" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,18 +5139,29 @@
         <v>2869.1019</v>
       </c>
       <c r="G116" t="n">
+        <v>49.60000000000002</v>
+      </c>
+      <c r="H116" t="n">
         <v>49.71166666666662</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L116" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4529,18 +5185,29 @@
         <v>23789.3472</v>
       </c>
       <c r="G117" t="n">
+        <v>49.58000000000002</v>
+      </c>
+      <c r="H117" t="n">
         <v>49.70999999999995</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L117" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,18 +5231,29 @@
         <v>58200</v>
       </c>
       <c r="G118" t="n">
+        <v>49.58000000000002</v>
+      </c>
+      <c r="H118" t="n">
         <v>49.71333333333328</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L118" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4599,18 +5277,29 @@
         <v>10000</v>
       </c>
       <c r="G119" t="n">
+        <v>49.59333333333335</v>
+      </c>
+      <c r="H119" t="n">
         <v>49.71833333333328</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L119" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,18 +5323,27 @@
         <v>1445.5913</v>
       </c>
       <c r="G120" t="n">
+        <v>49.60666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>49.72333333333329</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,18 +5367,477 @@
         <v>2288.0683</v>
       </c>
       <c r="G121" t="n">
+        <v>49.61333333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>49.72666666666662</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>420.992</v>
+      </c>
+      <c r="G122" t="n">
+        <v>49.62666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>49.73166666666662</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L122" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8371.983899999999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>49.65333333333334</v>
+      </c>
+      <c r="H123" t="n">
+        <v>49.73833333333329</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8141</v>
+      </c>
+      <c r="G124" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="H124" t="n">
+        <v>49.7433333333333</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>321.973</v>
+      </c>
+      <c r="G125" t="n">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>49.74999999999996</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2637</v>
+      </c>
+      <c r="G126" t="n">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>49.75499999999996</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>49.68666666666665</v>
+      </c>
+      <c r="H127" t="n">
+        <v>49.75666666666663</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3258.9999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>49.69333333333332</v>
+      </c>
+      <c r="H128" t="n">
+        <v>49.76166666666663</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="L128" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1548.1847</v>
+      </c>
+      <c r="G129" t="n">
+        <v>49.71333333333332</v>
+      </c>
+      <c r="H129" t="n">
+        <v>49.76499999999997</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L129" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>86.0924</v>
+      </c>
+      <c r="G130" t="n">
+        <v>49.73333333333332</v>
+      </c>
+      <c r="H130" t="n">
+        <v>49.76999999999997</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="L130" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G131" t="n">
+        <v>49.75333333333332</v>
+      </c>
+      <c r="H131" t="n">
+        <v>49.77499999999997</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="L131" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>49.3</v>
+        <v>50.1</v>
       </c>
       <c r="D2" t="n">
-        <v>49.5</v>
+        <v>50.1</v>
       </c>
       <c r="E2" t="n">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>18098.9918</v>
+        <v>12870.741</v>
       </c>
       <c r="G2" t="n">
-        <v>-31732.68520000001</v>
+        <v>214582.11316342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C3" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D3" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="E3" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F3" t="n">
-        <v>3486.9602</v>
+        <v>32400</v>
       </c>
       <c r="G3" t="n">
-        <v>-28245.72500000001</v>
+        <v>182182.11316342</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C4" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E4" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F4" t="n">
-        <v>57000</v>
+        <v>290.5695</v>
       </c>
       <c r="G4" t="n">
-        <v>-28245.72500000001</v>
+        <v>182472.68266342</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C5" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D5" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E5" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F5" t="n">
-        <v>32470.4944</v>
+        <v>148.5516</v>
       </c>
       <c r="G5" t="n">
-        <v>-28245.72500000001</v>
+        <v>182472.68266342</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C6" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="D6" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E6" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F6" t="n">
-        <v>4500.0611</v>
+        <v>5030</v>
       </c>
       <c r="G6" t="n">
-        <v>-28245.72500000001</v>
+        <v>187502.68266342</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,153 +611,137 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="C7" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="D7" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="F7" t="n">
-        <v>2277.733</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>-28245.72500000001</v>
+        <v>187502.68266342</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C8" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E8" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F8" t="n">
-        <v>1175.089</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>-27070.63600000001</v>
+        <v>187485.68266342</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C9" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="D9" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E9" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F9" t="n">
-        <v>314.0696</v>
+        <v>3875.9793</v>
       </c>
       <c r="G9" t="n">
-        <v>-27070.63600000001</v>
+        <v>191361.66196342</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.8</v>
+        <v>49.3</v>
       </c>
       <c r="C10" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D10" t="n">
-        <v>49.8</v>
+        <v>49.3</v>
       </c>
       <c r="E10" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F10" t="n">
-        <v>5250.6453</v>
+        <v>25407.8611</v>
       </c>
       <c r="G10" t="n">
-        <v>-32321.28130000001</v>
+        <v>165953.80086342</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -757,121 +750,118 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="C11" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="D11" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="E11" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="F11" t="n">
-        <v>9116.6351</v>
+        <v>20384.1187</v>
       </c>
       <c r="G11" t="n">
-        <v>-41437.91640000002</v>
+        <v>165953.80086342</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>49.3</v>
+      </c>
       <c r="K11" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.3</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C12" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="F12" t="n">
-        <v>8532.125700000001</v>
+        <v>6200</v>
       </c>
       <c r="G12" t="n">
-        <v>-32905.79070000001</v>
+        <v>172153.80086342</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>49.3</v>
+      </c>
       <c r="K12" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C13" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E13" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F13" t="n">
-        <v>655.9095</v>
+        <v>2182.9062</v>
       </c>
       <c r="G13" t="n">
-        <v>-32905.79070000001</v>
+        <v>169970.89466342</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -881,38 +871,39 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C14" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D14" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E14" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F14" t="n">
-        <v>9402.7855</v>
+        <v>117.0938</v>
       </c>
       <c r="G14" t="n">
-        <v>-23503.00520000001</v>
+        <v>169970.89466342</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -921,67 +912,55 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C15" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E15" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="F15" t="n">
-        <v>32344.8836</v>
+        <v>6194.7684</v>
       </c>
       <c r="G15" t="n">
-        <v>8841.878399999987</v>
+        <v>176165.66306342</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C16" t="n">
         <v>49.9</v>
@@ -990,13 +969,13 @@
         <v>49.9</v>
       </c>
       <c r="E16" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="F16" t="n">
-        <v>16992.0397</v>
+        <v>2844.9387</v>
       </c>
       <c r="G16" t="n">
-        <v>8841.878399999987</v>
+        <v>179010.60176342</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1005,164 +984,142 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="C17" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="D17" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E17" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="F17" t="n">
-        <v>6600</v>
+        <v>3805.2316</v>
       </c>
       <c r="G17" t="n">
-        <v>8841.878399999987</v>
+        <v>175205.37016342</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>49.4</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49.4</v>
       </c>
       <c r="E18" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="F18" t="n">
-        <v>54727.6875</v>
+        <v>25312.1967</v>
       </c>
       <c r="G18" t="n">
-        <v>63569.56589999999</v>
+        <v>149893.17346342</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="C19" t="n">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="D19" t="n">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="E19" t="n">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="F19" t="n">
-        <v>11704.8303</v>
+        <v>224.2114</v>
       </c>
       <c r="G19" t="n">
-        <v>75274.39619999999</v>
+        <v>149893.17346342</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="C20" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="D20" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="E20" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="F20" t="n">
-        <v>11374.9448</v>
+        <v>282.1795</v>
       </c>
       <c r="G20" t="n">
-        <v>86649.34099999999</v>
+        <v>149610.99396342</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1171,91 +1128,87 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50.3</v>
+        <v>49.2</v>
       </c>
       <c r="C21" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="D21" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="E21" t="n">
-        <v>50.3</v>
+        <v>48.8</v>
       </c>
       <c r="F21" t="n">
-        <v>347.2801</v>
+        <v>17653.3933</v>
       </c>
       <c r="G21" t="n">
-        <v>86649.34099999999</v>
+        <v>149610.99396342</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J21" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="C22" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="D22" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="E22" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="F22" t="n">
-        <v>19742.12723658</v>
+        <v>16864.7433</v>
       </c>
       <c r="G22" t="n">
-        <v>86649.34099999999</v>
+        <v>149610.99396342</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J22" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,39 +1217,40 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="C23" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="D23" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="E23" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F23" t="n">
-        <v>248.5089</v>
+        <v>21767.21</v>
       </c>
       <c r="G23" t="n">
-        <v>86649.34099999999</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J23" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1305,39 +1259,40 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="C24" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="D24" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="E24" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F24" t="n">
-        <v>53916.5009</v>
+        <v>2151496.36</v>
       </c>
       <c r="G24" t="n">
-        <v>140565.8419</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J24" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,39 +1301,40 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="C25" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="D25" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="E25" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="F25" t="n">
-        <v>35380.7142</v>
+        <v>4832477.86</v>
       </c>
       <c r="G25" t="n">
-        <v>140565.8419</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J25" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1387,39 +1343,40 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="C26" t="n">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="D26" t="n">
-        <v>50.6</v>
+        <v>49.5</v>
       </c>
       <c r="E26" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="F26" t="n">
-        <v>32474</v>
+        <v>1761993.4317</v>
       </c>
       <c r="G26" t="n">
-        <v>173039.8419</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J26" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1428,28 +1385,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="C27" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="D27" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="E27" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F27" t="n">
-        <v>4289</v>
+        <v>3267048.3027</v>
       </c>
       <c r="G27" t="n">
-        <v>168750.8419</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1458,9 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1469,39 +1425,40 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="C28" t="n">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="D28" t="n">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="E28" t="n">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="F28" t="n">
-        <v>21919.2865</v>
+        <v>3219179.4631</v>
       </c>
       <c r="G28" t="n">
-        <v>190670.1284</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J28" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1510,39 +1467,40 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="C29" t="n">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="D29" t="n">
-        <v>50.6</v>
+        <v>49.6</v>
       </c>
       <c r="E29" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F29" t="n">
-        <v>34662.2644</v>
+        <v>3207412.2532</v>
       </c>
       <c r="G29" t="n">
-        <v>190670.1284</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J29" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1551,39 +1509,40 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="C30" t="n">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="D30" t="n">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="E30" t="n">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="F30" t="n">
-        <v>631.4837</v>
+        <v>3231146.673</v>
       </c>
       <c r="G30" t="n">
-        <v>190038.6447</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J30" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1592,39 +1551,40 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="C31" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="D31" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="E31" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F31" t="n">
-        <v>10108.0866</v>
+        <v>3219179.4631</v>
       </c>
       <c r="G31" t="n">
-        <v>179930.5581</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J31" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1633,39 +1593,40 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="C32" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="D32" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="E32" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F32" t="n">
-        <v>16194.3319</v>
+        <v>2321638.7206</v>
       </c>
       <c r="G32" t="n">
-        <v>179930.5581</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J32" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,39 +1635,40 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="C33" t="n">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="D33" t="n">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="E33" t="n">
-        <v>50.4</v>
+        <v>49.4</v>
       </c>
       <c r="F33" t="n">
-        <v>27086.76376342</v>
+        <v>8232.790300000001</v>
       </c>
       <c r="G33" t="n">
-        <v>207017.32186342</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J33" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,39 +1677,40 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50.7</v>
+        <v>49.6</v>
       </c>
       <c r="C34" t="n">
-        <v>50.7</v>
+        <v>49.8</v>
       </c>
       <c r="D34" t="n">
-        <v>50.7</v>
+        <v>49.8</v>
       </c>
       <c r="E34" t="n">
-        <v>50.7</v>
+        <v>49.6</v>
       </c>
       <c r="F34" t="n">
-        <v>11896.2919</v>
+        <v>38799</v>
       </c>
       <c r="G34" t="n">
-        <v>218913.61376342</v>
+        <v>210177.20396342</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J34" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1756,139 +1719,151 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>50.6</v>
+        <v>49.5</v>
       </c>
       <c r="C35" t="n">
-        <v>50.4</v>
+        <v>49.5</v>
       </c>
       <c r="D35" t="n">
-        <v>50.6</v>
+        <v>49.5</v>
       </c>
       <c r="E35" t="n">
-        <v>50.4</v>
+        <v>49.5</v>
       </c>
       <c r="F35" t="n">
-        <v>6954.0475</v>
+        <v>3045.5881</v>
       </c>
       <c r="G35" t="n">
-        <v>211959.56626342</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>49.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1.013181818181818</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="C36" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="D36" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="E36" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="F36" t="n">
-        <v>3867</v>
+        <v>1002.0237</v>
       </c>
       <c r="G36" t="n">
-        <v>208092.56626342</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="C37" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="D37" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="E37" t="n">
-        <v>50.2</v>
+        <v>49.5</v>
       </c>
       <c r="F37" t="n">
-        <v>5920.537</v>
+        <v>6391.9998</v>
       </c>
       <c r="G37" t="n">
-        <v>208092.56626342</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C38" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D38" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E38" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F38" t="n">
-        <v>17194.527</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>190898.03926342</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1898,32 +1873,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C39" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D39" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E39" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="F39" t="n">
-        <v>19033.1708</v>
+        <v>2008.03212851</v>
       </c>
       <c r="G39" t="n">
-        <v>171864.86846342</v>
+        <v>209139.64799193</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1933,32 +1913,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C40" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="D40" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E40" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="F40" t="n">
-        <v>18388.8905</v>
+        <v>15101.788</v>
       </c>
       <c r="G40" t="n">
-        <v>190253.75896342</v>
+        <v>194037.85999193</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1968,32 +1953,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="C41" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="D41" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="E41" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="F41" t="n">
-        <v>5505.6132</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="n">
-        <v>195759.37216342</v>
+        <v>194037.85999193</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2003,32 +1993,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C42" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D42" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E42" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F42" t="n">
-        <v>7048</v>
+        <v>11600</v>
       </c>
       <c r="G42" t="n">
-        <v>188711.37216342</v>
+        <v>194037.85999193</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2038,73 +2033,81 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="E43" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="F43" t="n">
-        <v>13000</v>
+        <v>1026.8734</v>
       </c>
       <c r="G43" t="n">
-        <v>201711.37216342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="C44" t="n">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="D44" t="n">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="E44" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="F44" t="n">
-        <v>12870.741</v>
+        <v>1597.9999</v>
       </c>
       <c r="G44" t="n">
-        <v>214582.11316342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2112,28 +2115,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C45" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D45" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E45" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F45" t="n">
-        <v>32400</v>
+        <v>1594.0049</v>
       </c>
       <c r="G45" t="n">
-        <v>182182.11316342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2147,28 +2151,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C46" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D46" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E46" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F46" t="n">
-        <v>290.5695</v>
+        <v>728.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>182472.68266342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2182,28 +2187,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C47" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D47" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E47" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F47" t="n">
-        <v>148.5516</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>182472.68266342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2217,28 +2223,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C48" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D48" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E48" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F48" t="n">
-        <v>5030</v>
+        <v>200888.538</v>
       </c>
       <c r="G48" t="n">
-        <v>187502.68266342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2252,28 +2259,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C49" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D49" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E49" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>22402.2323</v>
       </c>
       <c r="G49" t="n">
-        <v>187502.68266342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2287,34 +2295,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C50" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D50" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E50" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F50" t="n">
-        <v>17</v>
+        <v>10060.1153</v>
       </c>
       <c r="G50" t="n">
-        <v>187485.68266342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2322,28 +2331,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C51" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D51" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E51" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F51" t="n">
-        <v>3875.9793</v>
+        <v>1052.2508</v>
       </c>
       <c r="G51" t="n">
-        <v>191361.66196342</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2357,34 +2367,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C52" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D52" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E52" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F52" t="n">
-        <v>25407.8611</v>
+        <v>6974.2579</v>
       </c>
       <c r="G52" t="n">
-        <v>165953.80086342</v>
+        <v>188090.47549193</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2392,63 +2403,69 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C53" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D53" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E53" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F53" t="n">
-        <v>20384.1187</v>
+        <v>6696.9843</v>
       </c>
       <c r="G53" t="n">
-        <v>165953.80086342</v>
+        <v>188090.47549193</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>49.4</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="D54" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="E54" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F54" t="n">
-        <v>6200</v>
+        <v>44.70824949</v>
       </c>
       <c r="G54" t="n">
-        <v>172153.80086342</v>
+        <v>188135.18374142</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2457,47 +2474,54 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="K54" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
+        <v>49.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E55" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F55" t="n">
-        <v>2182.9062</v>
+        <v>15200</v>
       </c>
       <c r="G55" t="n">
-        <v>169970.89466342</v>
+        <v>172935.18374142</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>49.7</v>
+      </c>
       <c r="K55" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2507,6 +2531,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2516,60 +2541,59 @@
         <v>49.5</v>
       </c>
       <c r="C56" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D56" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E56" t="n">
         <v>49.5</v>
       </c>
       <c r="F56" t="n">
-        <v>117.0938</v>
+        <v>3904.0113</v>
       </c>
       <c r="G56" t="n">
-        <v>169970.89466342</v>
+        <v>176839.1950414201</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>49.4</v>
+      </c>
       <c r="K56" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>49.4</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C57" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D57" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E57" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F57" t="n">
-        <v>6194.7684</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>176165.66306342</v>
+        <v>166839.1950414201</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2578,47 +2602,54 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="K57" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+        <v>49.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C58" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D58" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E58" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="F58" t="n">
-        <v>2844.9387</v>
+        <v>1716.7319</v>
       </c>
       <c r="G58" t="n">
-        <v>179010.60176342</v>
+        <v>166839.1950414201</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>49.5</v>
+      </c>
       <c r="K58" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2628,367 +2659,417 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C59" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D59" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E59" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="F59" t="n">
-        <v>3805.2316</v>
+        <v>30000.2007</v>
       </c>
       <c r="G59" t="n">
-        <v>175205.37016342</v>
+        <v>136838.9943414201</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>49.5</v>
+      </c>
       <c r="K59" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C60" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D60" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E60" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F60" t="n">
-        <v>25312.1967</v>
+        <v>42.33870967</v>
       </c>
       <c r="G60" t="n">
-        <v>149893.17346342</v>
+        <v>136881.3330510901</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C61" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D61" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E61" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F61" t="n">
-        <v>224.2114</v>
+        <v>4461.9264</v>
       </c>
       <c r="G61" t="n">
-        <v>149893.17346342</v>
+        <v>132419.4066510901</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C62" t="n">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="E62" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="F62" t="n">
-        <v>282.1795</v>
+        <v>6736.2736</v>
       </c>
       <c r="G62" t="n">
-        <v>149610.99396342</v>
+        <v>139155.6802510901</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="C63" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="D63" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="E63" t="n">
-        <v>48.8</v>
+        <v>49.8</v>
       </c>
       <c r="F63" t="n">
-        <v>17653.3933</v>
+        <v>733.5302</v>
       </c>
       <c r="G63" t="n">
-        <v>149610.99396342</v>
+        <v>138422.1500510901</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="C64" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="D64" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="E64" t="n">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="F64" t="n">
-        <v>16864.7433</v>
+        <v>1599.1967</v>
       </c>
       <c r="G64" t="n">
-        <v>149610.99396342</v>
+        <v>138422.1500510901</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>49.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>49.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C65" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="D65" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E65" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F65" t="n">
-        <v>21767.21</v>
+        <v>9104.006799999999</v>
       </c>
       <c r="G65" t="n">
-        <v>171378.20396342</v>
+        <v>129318.1432510901</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>49.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C66" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D66" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E66" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F66" t="n">
-        <v>2151496.36</v>
+        <v>5379.38</v>
       </c>
       <c r="G66" t="n">
-        <v>171378.20396342</v>
+        <v>123938.7632510901</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C67" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D67" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E67" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F67" t="n">
-        <v>4832477.86</v>
+        <v>10297.3054</v>
       </c>
       <c r="G67" t="n">
-        <v>171378.20396342</v>
+        <v>123938.7632510901</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C68" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D68" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E68" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F68" t="n">
-        <v>1761993.4317</v>
+        <v>2022.1378</v>
       </c>
       <c r="G68" t="n">
-        <v>171378.20396342</v>
+        <v>125960.9010510901</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2997,33 +3078,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C69" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D69" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E69" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F69" t="n">
-        <v>3267048.3027</v>
+        <v>1150</v>
       </c>
       <c r="G69" t="n">
-        <v>171378.20396342</v>
+        <v>125960.9010510901</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3032,74 +3120,88 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49.4</v>
+        <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>49.4</v>
+        <v>50.1</v>
       </c>
       <c r="D70" t="n">
-        <v>49.4</v>
+        <v>50.1</v>
       </c>
       <c r="E70" t="n">
-        <v>49.4</v>
+        <v>50</v>
       </c>
       <c r="F70" t="n">
-        <v>3219179.4631</v>
+        <v>28600</v>
       </c>
       <c r="G70" t="n">
-        <v>171378.20396342</v>
+        <v>154560.9010510901</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
-        <v>1</v>
-      </c>
+        <v>1.00917004048583</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C71" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D71" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="E71" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F71" t="n">
-        <v>3207412.2532</v>
+        <v>128.6419</v>
       </c>
       <c r="G71" t="n">
-        <v>171378.20396342</v>
+        <v>154432.2591510901</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3107,34 +3209,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C72" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D72" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E72" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F72" t="n">
-        <v>3231146.673</v>
+        <v>5774</v>
       </c>
       <c r="G72" t="n">
-        <v>171378.20396342</v>
+        <v>154432.2591510901</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3142,34 +3245,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F73" t="n">
-        <v>3219179.4631</v>
+        <v>1004.2275</v>
       </c>
       <c r="G73" t="n">
-        <v>171378.20396342</v>
+        <v>154432.2591510901</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3177,34 +3281,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C74" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D74" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E74" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F74" t="n">
-        <v>2321638.7206</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="n">
-        <v>171378.20396342</v>
+        <v>154432.2591510901</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3212,34 +3317,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>49.4</v>
+        <v>50.1</v>
       </c>
       <c r="C75" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="D75" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="E75" t="n">
-        <v>49.4</v>
+        <v>50.1</v>
       </c>
       <c r="F75" t="n">
-        <v>8232.790300000001</v>
+        <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>171378.20396342</v>
+        <v>164432.2591510901</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3247,34 +3353,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="C76" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="D76" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="E76" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>38799</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>210177.20396342</v>
+        <v>163432.2591510901</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3282,34 +3389,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="C77" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="D77" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="E77" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="F77" t="n">
-        <v>3045.5881</v>
+        <v>85.2788</v>
       </c>
       <c r="G77" t="n">
-        <v>207131.61586342</v>
+        <v>163517.5379510901</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3317,34 +3425,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="C78" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="D78" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
-        <v>1002.0237</v>
+        <v>1004.2275</v>
       </c>
       <c r="G78" t="n">
-        <v>207131.61586342</v>
+        <v>162513.3104510901</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3352,34 +3461,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="C79" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="D79" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="F79" t="n">
-        <v>6391.9998</v>
+        <v>40000</v>
       </c>
       <c r="G79" t="n">
-        <v>207131.61586342</v>
+        <v>122513.3104510901</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3387,34 +3497,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="C80" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="D80" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="E80" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>18608.1274</v>
       </c>
       <c r="G80" t="n">
-        <v>207131.61586342</v>
+        <v>141121.4378510901</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3422,34 +3533,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="C81" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="D81" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="E81" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2008.03212851</v>
+        <v>75.2286</v>
       </c>
       <c r="G81" t="n">
-        <v>209139.64799193</v>
+        <v>141196.6664510901</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3457,34 +3569,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="C82" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="D82" t="n">
-        <v>49.5</v>
+        <v>50.2</v>
       </c>
       <c r="E82" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="F82" t="n">
-        <v>15101.788</v>
+        <v>400</v>
       </c>
       <c r="G82" t="n">
-        <v>194037.85999193</v>
+        <v>140796.6664510901</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3492,34 +3605,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="C83" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="D83" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="E83" t="n">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>2132.1235</v>
       </c>
       <c r="G83" t="n">
-        <v>194037.85999193</v>
+        <v>140796.6664510901</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3527,34 +3641,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>49.4</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="D84" t="n">
-        <v>49.4</v>
+        <v>50</v>
       </c>
       <c r="E84" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="F84" t="n">
-        <v>11600</v>
+        <v>56425.8152</v>
       </c>
       <c r="G84" t="n">
-        <v>194037.85999193</v>
+        <v>84370.85125109008</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3562,34 +3677,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C85" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D85" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E85" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F85" t="n">
-        <v>1026.8734</v>
+        <v>23105.9716</v>
       </c>
       <c r="G85" t="n">
-        <v>195064.73339193</v>
+        <v>61264.87965109007</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3597,34 +3713,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C86" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D86" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E86" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F86" t="n">
-        <v>1597.9999</v>
+        <v>13827.8209</v>
       </c>
       <c r="G86" t="n">
-        <v>195064.73339193</v>
+        <v>47437.05875109007</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3632,34 +3749,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C87" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D87" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E87" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F87" t="n">
-        <v>1594.0049</v>
+        <v>2293.8028</v>
       </c>
       <c r="G87" t="n">
-        <v>195064.73339193</v>
+        <v>49730.86155109007</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3667,28 +3785,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C88" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D88" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E88" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F88" t="n">
-        <v>728.9999</v>
+        <v>17600</v>
       </c>
       <c r="G88" t="n">
-        <v>195064.73339193</v>
+        <v>49730.86155109007</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3702,28 +3821,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C89" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D89" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E89" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>2033</v>
       </c>
       <c r="G89" t="n">
-        <v>195064.73339193</v>
+        <v>49730.86155109007</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3737,28 +3857,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C90" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D90" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="E90" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F90" t="n">
-        <v>200888.538</v>
+        <v>12542.9998</v>
       </c>
       <c r="G90" t="n">
-        <v>195064.73339193</v>
+        <v>49730.86155109007</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3772,28 +3893,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C91" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D91" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E91" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F91" t="n">
-        <v>22402.2323</v>
+        <v>1460</v>
       </c>
       <c r="G91" t="n">
-        <v>195064.73339193</v>
+        <v>48270.86155109007</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3807,28 +3929,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C92" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D92" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E92" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F92" t="n">
-        <v>10060.1153</v>
+        <v>44622.4341</v>
       </c>
       <c r="G92" t="n">
-        <v>195064.73339193</v>
+        <v>48270.86155109007</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3842,28 +3965,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C93" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D93" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E93" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F93" t="n">
-        <v>1052.2508</v>
+        <v>2524</v>
       </c>
       <c r="G93" t="n">
-        <v>195064.73339193</v>
+        <v>48270.86155109007</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3877,28 +4001,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C94" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D94" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E94" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F94" t="n">
-        <v>6974.2579</v>
+        <v>19433.6366</v>
       </c>
       <c r="G94" t="n">
-        <v>188090.47549193</v>
+        <v>48270.86155109007</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3912,28 +4037,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C95" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D95" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E95" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F95" t="n">
-        <v>6696.9843</v>
+        <v>61.4501</v>
       </c>
       <c r="G95" t="n">
-        <v>188090.47549193</v>
+        <v>48209.41145109007</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3947,6 +4073,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3965,10 +4092,10 @@
         <v>49.7</v>
       </c>
       <c r="F96" t="n">
-        <v>44.70824949</v>
+        <v>11200</v>
       </c>
       <c r="G96" t="n">
-        <v>188135.18374142</v>
+        <v>59409.41145109007</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3982,28 +4109,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C97" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="D97" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E97" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F97" t="n">
-        <v>15200</v>
+        <v>20000</v>
       </c>
       <c r="G97" t="n">
-        <v>172935.18374142</v>
+        <v>59409.41145109007</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4017,28 +4145,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C98" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D98" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E98" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F98" t="n">
-        <v>3904.0113</v>
+        <v>20200</v>
       </c>
       <c r="G98" t="n">
-        <v>176839.1950414201</v>
+        <v>59409.41145109007</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4052,6 +4181,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4070,10 +4200,10 @@
         <v>49.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10000</v>
+        <v>7337.612</v>
       </c>
       <c r="G99" t="n">
-        <v>166839.1950414201</v>
+        <v>52071.79945109007</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4087,28 +4217,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C100" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D100" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E100" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F100" t="n">
-        <v>1716.7319</v>
+        <v>57626</v>
       </c>
       <c r="G100" t="n">
-        <v>166839.1950414201</v>
+        <v>109697.7994510901</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4122,6 +4253,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4131,67 +4263,81 @@
         <v>49.5</v>
       </c>
       <c r="C101" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D101" t="n">
         <v>49.5</v>
       </c>
       <c r="E101" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F101" t="n">
-        <v>30000.2007</v>
+        <v>2704.9609</v>
       </c>
       <c r="G101" t="n">
-        <v>136838.9943414201</v>
+        <v>106992.8385510901</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="K101" t="n">
+        <v>49.6</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C102" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D102" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E102" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F102" t="n">
-        <v>42.33870967</v>
+        <v>13400</v>
       </c>
       <c r="G102" t="n">
-        <v>136881.3330510901</v>
+        <v>106992.8385510901</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4210,100 +4356,123 @@
         <v>49.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4461.9264</v>
+        <v>2869.1019</v>
       </c>
       <c r="G103" t="n">
-        <v>132419.4066510901</v>
+        <v>106992.8385510901</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="C104" t="n">
-        <v>50</v>
+        <v>49.4</v>
       </c>
       <c r="D104" t="n">
-        <v>50</v>
+        <v>49.4</v>
       </c>
       <c r="E104" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="F104" t="n">
-        <v>6736.2736</v>
+        <v>23789.3472</v>
       </c>
       <c r="G104" t="n">
-        <v>139155.6802510901</v>
+        <v>83203.49135109007</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K104" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C105" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="D105" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E105" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F105" t="n">
-        <v>733.5302</v>
+        <v>58200</v>
       </c>
       <c r="G105" t="n">
-        <v>138422.1500510901</v>
+        <v>141403.4913510901</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C106" t="n">
         <v>49.8</v>
@@ -4312,131 +4481,163 @@
         <v>49.8</v>
       </c>
       <c r="E106" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F106" t="n">
-        <v>1599.1967</v>
+        <v>10000</v>
       </c>
       <c r="G106" t="n">
-        <v>138422.1500510901</v>
+        <v>151403.4913510901</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="K106" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C107" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D107" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E107" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="F107" t="n">
-        <v>9104.006799999999</v>
+        <v>1445.5913</v>
       </c>
       <c r="G107" t="n">
-        <v>129318.1432510901</v>
+        <v>151403.4913510901</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C108" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D108" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E108" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F108" t="n">
-        <v>5379.38</v>
+        <v>2288.0683</v>
       </c>
       <c r="G108" t="n">
-        <v>123938.7632510901</v>
+        <v>149115.4230510901</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C109" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="D109" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E109" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="F109" t="n">
-        <v>10297.3054</v>
+        <v>420.992</v>
       </c>
       <c r="G109" t="n">
-        <v>123938.7632510901</v>
+        <v>149536.4150510901</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4455,150 +4656,178 @@
         <v>49.9</v>
       </c>
       <c r="F110" t="n">
-        <v>2022.1378</v>
+        <v>8371.983899999999</v>
       </c>
       <c r="G110" t="n">
-        <v>125960.9010510901</v>
+        <v>157908.3989510901</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C111" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D111" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E111" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F111" t="n">
-        <v>1150</v>
+        <v>8141</v>
       </c>
       <c r="G111" t="n">
-        <v>125960.9010510901</v>
+        <v>149767.3989510901</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="C112" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="D112" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="E112" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="F112" t="n">
-        <v>28600</v>
+        <v>321.973</v>
       </c>
       <c r="G112" t="n">
-        <v>154560.9010510901</v>
+        <v>149767.3989510901</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C113" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="D113" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="E113" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F113" t="n">
-        <v>128.6419</v>
+        <v>2637</v>
       </c>
       <c r="G113" t="n">
-        <v>154432.2591510901</v>
+        <v>147130.3989510901</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C114" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D114" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E114" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F114" t="n">
-        <v>5774</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>154432.2591510901</v>
+        <v>147140.3989510901</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4607,103 +4836,126 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C115" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="D115" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="E115" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F115" t="n">
-        <v>1004.2275</v>
+        <v>3258.9999</v>
       </c>
       <c r="G115" t="n">
-        <v>154432.2591510901</v>
+        <v>143881.3990510901</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="K115" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C116" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D116" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E116" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>1548.1847</v>
       </c>
       <c r="G116" t="n">
-        <v>154432.2591510901</v>
+        <v>145429.5837510901</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M116" t="n">
-        <v>1</v>
-      </c>
+        <v>1.001060606060606</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="C117" t="n">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
       <c r="D117" t="n">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
       <c r="E117" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="F117" t="n">
-        <v>10000</v>
+        <v>86.0924</v>
       </c>
       <c r="G117" t="n">
-        <v>164432.2591510901</v>
+        <v>145429.5837510901</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4712,33 +4964,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="C118" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="D118" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="E118" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>4600</v>
       </c>
       <c r="G118" t="n">
-        <v>163432.2591510901</v>
+        <v>145429.5837510901</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4752,1606 +5011,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>85.2788</v>
-      </c>
-      <c r="G119" t="n">
-        <v>163517.5379510901</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>50</v>
-      </c>
-      <c r="C120" t="n">
-        <v>50</v>
-      </c>
-      <c r="D120" t="n">
-        <v>50</v>
-      </c>
-      <c r="E120" t="n">
-        <v>50</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1004.2275</v>
-      </c>
-      <c r="G120" t="n">
-        <v>162513.3104510901</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>50</v>
-      </c>
-      <c r="C121" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>50</v>
-      </c>
-      <c r="E121" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G121" t="n">
-        <v>122513.3104510901</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>18608.1274</v>
-      </c>
-      <c r="G122" t="n">
-        <v>141121.4378510901</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>75.2286</v>
-      </c>
-      <c r="G123" t="n">
-        <v>141196.6664510901</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>400</v>
-      </c>
-      <c r="G124" t="n">
-        <v>140796.6664510901</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C125" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D125" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2132.1235</v>
-      </c>
-      <c r="G125" t="n">
-        <v>140796.6664510901</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>50</v>
-      </c>
-      <c r="C126" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>50</v>
-      </c>
-      <c r="E126" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>56425.8152</v>
-      </c>
-      <c r="G126" t="n">
-        <v>84370.85125109008</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>23105.9716</v>
-      </c>
-      <c r="G127" t="n">
-        <v>61264.87965109007</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D128" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>13827.8209</v>
-      </c>
-      <c r="G128" t="n">
-        <v>47437.05875109007</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C129" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E129" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2293.8028</v>
-      </c>
-      <c r="G129" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>17600</v>
-      </c>
-      <c r="G130" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2033</v>
-      </c>
-      <c r="G131" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C132" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D132" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E132" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>12542.9998</v>
-      </c>
-      <c r="G132" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1460</v>
-      </c>
-      <c r="G133" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>44622.4341</v>
-      </c>
-      <c r="G134" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D135" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2524</v>
-      </c>
-      <c r="G135" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>19433.6366</v>
-      </c>
-      <c r="G136" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>61.4501</v>
-      </c>
-      <c r="G137" t="n">
-        <v>48209.41145109007</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K137" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>11200</v>
-      </c>
-      <c r="G138" t="n">
-        <v>59409.41145109007</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G139" t="n">
-        <v>59409.41145109007</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K139" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>20200</v>
-      </c>
-      <c r="G140" t="n">
-        <v>59409.41145109007</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>7337.612</v>
-      </c>
-      <c r="G141" t="n">
-        <v>52071.79945109007</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>57626</v>
-      </c>
-      <c r="G142" t="n">
-        <v>109697.7994510901</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2704.9609</v>
-      </c>
-      <c r="G143" t="n">
-        <v>106992.8385510901</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K143" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>13400</v>
-      </c>
-      <c r="G144" t="n">
-        <v>106992.8385510901</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K144" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2869.1019</v>
-      </c>
-      <c r="G145" t="n">
-        <v>106992.8385510901</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K145" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C146" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>23789.3472</v>
-      </c>
-      <c r="G146" t="n">
-        <v>83203.49135109007</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K146" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>58200</v>
-      </c>
-      <c r="G147" t="n">
-        <v>141403.4913510901</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K147" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G148" t="n">
-        <v>151403.4913510901</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K148" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1445.5913</v>
-      </c>
-      <c r="G149" t="n">
-        <v>151403.4913510901</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2288.0683</v>
-      </c>
-      <c r="G150" t="n">
-        <v>149115.4230510901</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D151" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>420.992</v>
-      </c>
-      <c r="G151" t="n">
-        <v>149536.4150510901</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C152" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D152" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E152" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>8371.983899999999</v>
-      </c>
-      <c r="G152" t="n">
-        <v>157908.3989510901</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>8141</v>
-      </c>
-      <c r="G153" t="n">
-        <v>149767.3989510901</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>321.973</v>
-      </c>
-      <c r="G154" t="n">
-        <v>149767.3989510901</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2637</v>
-      </c>
-      <c r="G155" t="n">
-        <v>147130.3989510901</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10</v>
-      </c>
-      <c r="G156" t="n">
-        <v>147140.3989510901</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C157" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D157" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3258.9999</v>
-      </c>
-      <c r="G157" t="n">
-        <v>143881.3990510901</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1548.1847</v>
-      </c>
-      <c r="G158" t="n">
-        <v>145429.5837510901</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E159" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F159" t="n">
-        <v>86.0924</v>
-      </c>
-      <c r="G159" t="n">
-        <v>145429.5837510901</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D160" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E160" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>4600</v>
-      </c>
-      <c r="G160" t="n">
-        <v>145429.5837510901</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>48.4</v>
       </c>
       <c r="C2" t="n">
-        <v>50.1</v>
+        <v>48.4</v>
       </c>
       <c r="D2" t="n">
-        <v>50.1</v>
+        <v>48.4</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>48.4</v>
       </c>
       <c r="F2" t="n">
-        <v>12870.741</v>
+        <v>2137</v>
       </c>
       <c r="G2" t="n">
-        <v>214582.11316342</v>
+        <v>-93892.10570000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.8</v>
+        <v>48.6</v>
       </c>
       <c r="C3" t="n">
-        <v>49.6</v>
+        <v>48.6</v>
       </c>
       <c r="D3" t="n">
-        <v>49.8</v>
+        <v>48.6</v>
       </c>
       <c r="E3" t="n">
-        <v>49.6</v>
+        <v>48.6</v>
       </c>
       <c r="F3" t="n">
-        <v>32400</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>182182.11316342</v>
+        <v>-93792.10570000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.7</v>
+        <v>48.6</v>
       </c>
       <c r="C4" t="n">
-        <v>49.7</v>
+        <v>48.6</v>
       </c>
       <c r="D4" t="n">
-        <v>49.7</v>
+        <v>48.6</v>
       </c>
       <c r="E4" t="n">
-        <v>49.7</v>
+        <v>48.6</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5695</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>182472.68266342</v>
+        <v>-93792.10570000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C5" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="D5" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="E5" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="F5" t="n">
-        <v>148.5516</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>182472.68266342</v>
+        <v>-93782.10570000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.8</v>
+        <v>48.7</v>
       </c>
       <c r="C6" t="n">
-        <v>49.9</v>
+        <v>48.7</v>
       </c>
       <c r="D6" t="n">
-        <v>49.9</v>
+        <v>48.7</v>
       </c>
       <c r="E6" t="n">
-        <v>49.8</v>
+        <v>48.7</v>
       </c>
       <c r="F6" t="n">
-        <v>5030</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>187502.68266342</v>
+        <v>-93782.10570000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.9</v>
+        <v>48.7</v>
       </c>
       <c r="C7" t="n">
-        <v>49.9</v>
+        <v>48.7</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9</v>
+        <v>48.7</v>
       </c>
       <c r="E7" t="n">
-        <v>49.9</v>
+        <v>48.7</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>16864.7433</v>
       </c>
       <c r="G7" t="n">
-        <v>187502.68266342</v>
+        <v>-93782.10570000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +672,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.6</v>
+        <v>48.5</v>
       </c>
       <c r="C8" t="n">
-        <v>49.6</v>
+        <v>48.5</v>
       </c>
       <c r="D8" t="n">
-        <v>49.6</v>
+        <v>48.5</v>
       </c>
       <c r="E8" t="n">
-        <v>49.6</v>
+        <v>48.5</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>768.9351</v>
       </c>
       <c r="G8" t="n">
-        <v>187485.68266342</v>
+        <v>-94551.04080000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,31 +708,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="D9" t="n">
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="E9" t="n">
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3875.9793</v>
+        <v>3736.3518</v>
       </c>
       <c r="G9" t="n">
-        <v>191361.66196342</v>
+        <v>-98287.39260000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +748,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="C10" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="E10" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="F10" t="n">
-        <v>25407.8611</v>
+        <v>2816.3913</v>
       </c>
       <c r="G10" t="n">
-        <v>165953.80086342</v>
+        <v>-95471.00130000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +792,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="E11" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="F11" t="n">
-        <v>20384.1187</v>
+        <v>24839.8532</v>
       </c>
       <c r="G11" t="n">
-        <v>165953.80086342</v>
+        <v>-95471.00130000002</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -786,12 +816,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="K11" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>48.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -802,22 +836,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.9</v>
+        <v>48.5</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="E12" t="n">
-        <v>49.9</v>
+        <v>48.5</v>
       </c>
       <c r="F12" t="n">
-        <v>6200</v>
+        <v>1769</v>
       </c>
       <c r="G12" t="n">
-        <v>172153.80086342</v>
+        <v>-95471.00130000002</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -826,14 +860,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="K12" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -846,36 +880,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.5</v>
+        <v>48.8</v>
       </c>
       <c r="C13" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="D13" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="E13" t="n">
-        <v>49.5</v>
+        <v>48.8</v>
       </c>
       <c r="F13" t="n">
-        <v>2182.9062</v>
+        <v>36000</v>
       </c>
       <c r="G13" t="n">
-        <v>169970.89466342</v>
+        <v>-59471.00130000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>48.5</v>
+      </c>
       <c r="K13" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -888,32 +924,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="C14" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="D14" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="E14" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="F14" t="n">
-        <v>117.0938</v>
+        <v>603.2992</v>
       </c>
       <c r="G14" t="n">
-        <v>169970.89466342</v>
+        <v>-59471.00130000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,32 +968,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="C15" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="D15" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="E15" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="F15" t="n">
-        <v>6194.7684</v>
+        <v>277.0085</v>
       </c>
       <c r="G15" t="n">
-        <v>176165.66306342</v>
+        <v>-59471.00130000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -960,32 +1012,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="C16" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="D16" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="E16" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="F16" t="n">
-        <v>2844.9387</v>
+        <v>2530.3674</v>
       </c>
       <c r="G16" t="n">
-        <v>179010.60176342</v>
+        <v>-59471.00130000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -996,32 +1056,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="C17" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="D17" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="E17" t="n">
-        <v>49.6</v>
+        <v>48.9</v>
       </c>
       <c r="F17" t="n">
-        <v>3805.2316</v>
+        <v>12600</v>
       </c>
       <c r="G17" t="n">
-        <v>175205.37016342</v>
+        <v>-59471.00130000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1032,32 +1098,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
       <c r="C18" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
       <c r="D18" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
       <c r="E18" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
       <c r="F18" t="n">
-        <v>25312.1967</v>
+        <v>115.8049</v>
       </c>
       <c r="G18" t="n">
-        <v>149893.17346342</v>
+        <v>-59471.00130000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1068,32 +1140,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
       <c r="C19" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="D19" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="E19" t="n">
-        <v>49.4</v>
+        <v>48.9</v>
       </c>
       <c r="F19" t="n">
-        <v>224.2114</v>
+        <v>20004.1495</v>
       </c>
       <c r="G19" t="n">
-        <v>149893.17346342</v>
+        <v>-39466.85180000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1104,22 +1182,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="C20" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="D20" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="E20" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="F20" t="n">
-        <v>282.1795</v>
+        <v>407.331</v>
       </c>
       <c r="G20" t="n">
-        <v>149610.99396342</v>
+        <v>-39466.85180000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1128,8 +1206,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1140,36 +1224,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="C21" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="D21" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="E21" t="n">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
       <c r="F21" t="n">
-        <v>17653.3933</v>
+        <v>49.4021</v>
       </c>
       <c r="G21" t="n">
-        <v>149610.99396342</v>
+        <v>-39466.85180000002</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1182,33 +1266,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C22" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="D22" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="E22" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="F22" t="n">
-        <v>16864.7433</v>
+        <v>1026.16</v>
       </c>
       <c r="G22" t="n">
-        <v>149610.99396342</v>
+        <v>-38440.69180000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,33 +1308,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C23" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D23" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E23" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F23" t="n">
-        <v>21767.21</v>
+        <v>23029.8383</v>
       </c>
       <c r="G23" t="n">
-        <v>171378.20396342</v>
+        <v>-15410.85350000002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,21 +1362,21 @@
         <v>49.4</v>
       </c>
       <c r="F24" t="n">
-        <v>2151496.36</v>
+        <v>318.5247</v>
       </c>
       <c r="G24" t="n">
-        <v>171378.20396342</v>
+        <v>-15729.37820000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1308,33 +1392,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C25" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D25" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E25" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F25" t="n">
-        <v>4832477.86</v>
+        <v>289.1667</v>
       </c>
       <c r="G25" t="n">
-        <v>171378.20396342</v>
+        <v>-15440.21150000002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1350,33 +1434,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C26" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D26" t="n">
         <v>49.5</v>
       </c>
       <c r="E26" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1761993.4317</v>
+        <v>5782.543</v>
       </c>
       <c r="G26" t="n">
-        <v>171378.20396342</v>
+        <v>-15440.21150000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1392,22 +1476,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C27" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D27" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E27" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F27" t="n">
-        <v>3267048.3027</v>
+        <v>294.3648</v>
       </c>
       <c r="G27" t="n">
-        <v>171378.20396342</v>
+        <v>-15440.21150000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1416,7 +1500,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1432,33 +1518,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C28" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D28" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E28" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F28" t="n">
-        <v>3219179.4631</v>
+        <v>837.8803</v>
       </c>
       <c r="G28" t="n">
-        <v>171378.20396342</v>
+        <v>-15440.21150000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1474,33 +1560,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C29" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D29" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E29" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F29" t="n">
-        <v>3207412.2532</v>
+        <v>52400</v>
       </c>
       <c r="G29" t="n">
-        <v>171378.20396342</v>
+        <v>-15440.21150000002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1516,33 +1602,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C30" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D30" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E30" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F30" t="n">
-        <v>3231146.673</v>
+        <v>16292.4737</v>
       </c>
       <c r="G30" t="n">
-        <v>171378.20396342</v>
+        <v>-31732.68520000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1558,33 +1644,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C31" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D31" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E31" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F31" t="n">
-        <v>3219179.4631</v>
+        <v>18098.9918</v>
       </c>
       <c r="G31" t="n">
-        <v>171378.20396342</v>
+        <v>-31732.68520000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,33 +1686,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C32" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D32" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E32" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F32" t="n">
-        <v>2321638.7206</v>
+        <v>3486.9602</v>
       </c>
       <c r="G32" t="n">
-        <v>171378.20396342</v>
+        <v>-28245.72500000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1642,33 +1728,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C33" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D33" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E33" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F33" t="n">
-        <v>8232.790300000001</v>
+        <v>57000</v>
       </c>
       <c r="G33" t="n">
-        <v>171378.20396342</v>
+        <v>-28245.72500000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1684,33 +1770,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C34" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D34" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E34" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F34" t="n">
-        <v>38799</v>
+        <v>32470.4944</v>
       </c>
       <c r="G34" t="n">
-        <v>210177.20396342</v>
+        <v>-28245.72500000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1738,21 +1824,21 @@
         <v>49.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3045.5881</v>
+        <v>4500.0611</v>
       </c>
       <c r="G35" t="n">
-        <v>207131.61586342</v>
+        <v>-28245.72500000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,10 +1866,10 @@
         <v>49.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1002.0237</v>
+        <v>2277.733</v>
       </c>
       <c r="G36" t="n">
-        <v>207131.61586342</v>
+        <v>-28245.72500000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1792,7 +1878,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1811,19 +1899,19 @@
         <v>49.5</v>
       </c>
       <c r="C37" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="D37" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="E37" t="n">
         <v>49.5</v>
       </c>
       <c r="F37" t="n">
-        <v>6391.9998</v>
+        <v>1175.089</v>
       </c>
       <c r="G37" t="n">
-        <v>207131.61586342</v>
+        <v>-27070.63600000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1832,7 +1920,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1848,22 +1938,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C38" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="D38" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="E38" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>314.0696</v>
       </c>
       <c r="G38" t="n">
-        <v>207131.61586342</v>
+        <v>-27070.63600000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1872,7 +1962,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1891,19 +1983,19 @@
         <v>49.8</v>
       </c>
       <c r="C39" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D39" t="n">
         <v>49.8</v>
       </c>
       <c r="E39" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="F39" t="n">
-        <v>2008.03212851</v>
+        <v>5250.6453</v>
       </c>
       <c r="G39" t="n">
-        <v>209139.64799193</v>
+        <v>-32321.28130000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1912,7 +2004,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,19 +2025,19 @@
         <v>49.5</v>
       </c>
       <c r="C40" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D40" t="n">
         <v>49.5</v>
       </c>
       <c r="E40" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F40" t="n">
-        <v>15101.788</v>
+        <v>9116.6351</v>
       </c>
       <c r="G40" t="n">
-        <v>194037.85999193</v>
+        <v>-41437.91640000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,7 +2046,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1968,22 +2064,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C41" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="D41" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E41" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>8532.125700000001</v>
       </c>
       <c r="G41" t="n">
-        <v>194037.85999193</v>
+        <v>-32905.79070000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1992,7 +2088,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2008,22 +2106,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C42" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="D42" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E42" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F42" t="n">
-        <v>11600</v>
+        <v>655.9095</v>
       </c>
       <c r="G42" t="n">
-        <v>194037.85999193</v>
+        <v>-32905.79070000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2032,7 +2130,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2048,324 +2148,376 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C43" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="D43" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="E43" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1026.8734</v>
+        <v>9402.7855</v>
       </c>
       <c r="G43" t="n">
-        <v>195064.73339193</v>
+        <v>-23503.00520000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>32344.8836</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8841.878399999987</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16992.0397</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8841.878399999987</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8841.878399999987</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>54727.6875</v>
+      </c>
+      <c r="G47" t="n">
+        <v>63569.56589999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11704.8303</v>
+      </c>
+      <c r="G48" t="n">
+        <v>75274.39619999999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11374.9448</v>
+      </c>
+      <c r="G49" t="n">
+        <v>86649.34099999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>347.2801</v>
+      </c>
+      <c r="G50" t="n">
+        <v>86649.34099999999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19742.12723658</v>
+      </c>
+      <c r="G51" t="n">
+        <v>86649.34099999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E44" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1597.9999</v>
-      </c>
-      <c r="G44" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1594.0049</v>
-      </c>
-      <c r="G45" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>728.9999</v>
-      </c>
-      <c r="G46" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G47" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>50</v>
-      </c>
-      <c r="E48" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>200888.538</v>
-      </c>
-      <c r="G48" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>22402.2323</v>
-      </c>
-      <c r="G49" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10060.1153</v>
-      </c>
-      <c r="G50" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1052.2508</v>
-      </c>
-      <c r="G51" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>1.032113402061856</v>
       </c>
       <c r="N51" t="inlineStr"/>
     </row>
@@ -2374,22 +2526,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49.4</v>
+        <v>50.3</v>
       </c>
       <c r="C52" t="n">
-        <v>49.4</v>
+        <v>50.3</v>
       </c>
       <c r="D52" t="n">
-        <v>49.4</v>
+        <v>50.3</v>
       </c>
       <c r="E52" t="n">
-        <v>49.4</v>
+        <v>50.3</v>
       </c>
       <c r="F52" t="n">
-        <v>6974.2579</v>
+        <v>248.5089</v>
       </c>
       <c r="G52" t="n">
-        <v>188090.47549193</v>
+        <v>86649.34099999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2410,35 +2562,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49.4</v>
+        <v>50.3</v>
       </c>
       <c r="C53" t="n">
-        <v>49.4</v>
+        <v>50.4</v>
       </c>
       <c r="D53" t="n">
-        <v>49.4</v>
+        <v>50.4</v>
       </c>
       <c r="E53" t="n">
-        <v>49.4</v>
+        <v>50.3</v>
       </c>
       <c r="F53" t="n">
-        <v>6696.9843</v>
+        <v>53916.5009</v>
       </c>
       <c r="G53" t="n">
-        <v>188090.47549193</v>
+        <v>140565.8419</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>49.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2450,40 +2598,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
       <c r="C54" t="n">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
       <c r="D54" t="n">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
       <c r="E54" t="n">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
       <c r="F54" t="n">
-        <v>44.70824949</v>
+        <v>35380.7142</v>
       </c>
       <c r="G54" t="n">
-        <v>188135.18374142</v>
+        <v>140565.8419</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2494,40 +2634,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>49.4</v>
+        <v>50.4</v>
       </c>
       <c r="C55" t="n">
-        <v>49.4</v>
+        <v>50.6</v>
       </c>
       <c r="D55" t="n">
-        <v>49.4</v>
+        <v>50.6</v>
       </c>
       <c r="E55" t="n">
-        <v>49.4</v>
+        <v>50.4</v>
       </c>
       <c r="F55" t="n">
-        <v>15200</v>
+        <v>32474</v>
       </c>
       <c r="G55" t="n">
-        <v>172935.18374142</v>
+        <v>173039.8419</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="J55" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2538,35 +2670,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="C56" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="D56" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="E56" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="F56" t="n">
-        <v>3904.0113</v>
+        <v>4289</v>
       </c>
       <c r="G56" t="n">
-        <v>176839.1950414201</v>
+        <v>168750.8419</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>49.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2578,40 +2706,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>49.5</v>
+        <v>50.5</v>
       </c>
       <c r="C57" t="n">
-        <v>49.5</v>
+        <v>50.6</v>
       </c>
       <c r="D57" t="n">
-        <v>49.5</v>
+        <v>50.6</v>
       </c>
       <c r="E57" t="n">
-        <v>49.5</v>
+        <v>50.5</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>21919.2865</v>
       </c>
       <c r="G57" t="n">
-        <v>166839.1950414201</v>
+        <v>190670.1284</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2622,40 +2742,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="C58" t="n">
-        <v>49.5</v>
+        <v>50.6</v>
       </c>
       <c r="D58" t="n">
-        <v>49.5</v>
+        <v>50.6</v>
       </c>
       <c r="E58" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1716.7319</v>
+        <v>34662.2644</v>
       </c>
       <c r="G58" t="n">
-        <v>166839.1950414201</v>
+        <v>190670.1284</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2666,40 +2778,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>49.5</v>
+        <v>50.5</v>
       </c>
       <c r="C59" t="n">
-        <v>49.4</v>
+        <v>50.5</v>
       </c>
       <c r="D59" t="n">
-        <v>49.5</v>
+        <v>50.5</v>
       </c>
       <c r="E59" t="n">
-        <v>49.4</v>
+        <v>50.5</v>
       </c>
       <c r="F59" t="n">
-        <v>30000.2007</v>
+        <v>631.4837</v>
       </c>
       <c r="G59" t="n">
-        <v>136838.9943414201</v>
+        <v>190038.6447</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2710,40 +2814,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="C60" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="D60" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="E60" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="F60" t="n">
-        <v>42.33870967</v>
+        <v>10108.0866</v>
       </c>
       <c r="G60" t="n">
-        <v>136881.3330510901</v>
+        <v>179930.5581</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K60" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2754,40 +2850,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="C61" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="D61" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="E61" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="F61" t="n">
-        <v>4461.9264</v>
+        <v>16194.3319</v>
       </c>
       <c r="G61" t="n">
-        <v>132419.4066510901</v>
+        <v>179930.5581</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K61" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2798,40 +2886,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>49.6</v>
+        <v>50.4</v>
       </c>
       <c r="C62" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="D62" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="E62" t="n">
-        <v>49.6</v>
+        <v>50.4</v>
       </c>
       <c r="F62" t="n">
-        <v>6736.2736</v>
+        <v>27086.76376342</v>
       </c>
       <c r="G62" t="n">
-        <v>139155.6802510901</v>
+        <v>207017.32186342</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2842,40 +2922,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="C63" t="n">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="D63" t="n">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="E63" t="n">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="F63" t="n">
-        <v>733.5302</v>
+        <v>11896.2919</v>
       </c>
       <c r="G63" t="n">
-        <v>138422.1500510901</v>
+        <v>218913.61376342</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="J63" t="n">
-        <v>50</v>
-      </c>
-      <c r="K63" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +2958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.8</v>
+        <v>50.6</v>
       </c>
       <c r="C64" t="n">
-        <v>49.8</v>
+        <v>50.4</v>
       </c>
       <c r="D64" t="n">
-        <v>49.8</v>
+        <v>50.6</v>
       </c>
       <c r="E64" t="n">
-        <v>49.8</v>
+        <v>50.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1599.1967</v>
+        <v>6954.0475</v>
       </c>
       <c r="G64" t="n">
-        <v>138422.1500510901</v>
+        <v>211959.56626342</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2910,14 +2982,8 @@
         <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2928,22 +2994,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>49.7</v>
+        <v>50.2</v>
       </c>
       <c r="C65" t="n">
-        <v>49.7</v>
+        <v>50.2</v>
       </c>
       <c r="D65" t="n">
-        <v>49.7</v>
+        <v>50.2</v>
       </c>
       <c r="E65" t="n">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="F65" t="n">
-        <v>9104.006799999999</v>
+        <v>3867</v>
       </c>
       <c r="G65" t="n">
-        <v>129318.1432510901</v>
+        <v>208092.56626342</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2952,14 +3018,8 @@
         <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +3030,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="C66" t="n">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="D66" t="n">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="E66" t="n">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="F66" t="n">
-        <v>5379.38</v>
+        <v>5920.537</v>
       </c>
       <c r="G66" t="n">
-        <v>123938.7632510901</v>
+        <v>208092.56626342</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2994,14 +3054,8 @@
         <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3012,22 +3066,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C67" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="D67" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="E67" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="F67" t="n">
-        <v>10297.3054</v>
+        <v>17194.527</v>
       </c>
       <c r="G67" t="n">
-        <v>123938.7632510901</v>
+        <v>190898.03926342</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3036,14 +3090,8 @@
         <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3054,22 +3102,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C68" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="D68" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="E68" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F68" t="n">
-        <v>2022.1378</v>
+        <v>19033.1708</v>
       </c>
       <c r="G68" t="n">
-        <v>125960.9010510901</v>
+        <v>171864.86846342</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3078,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3096,22 +3138,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C69" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D69" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E69" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F69" t="n">
-        <v>1150</v>
+        <v>18388.8905</v>
       </c>
       <c r="G69" t="n">
-        <v>125960.9010510901</v>
+        <v>190253.75896342</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3120,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3138,40 +3174,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C70" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="D70" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F70" t="n">
-        <v>28600</v>
+        <v>5505.6132</v>
       </c>
       <c r="G70" t="n">
-        <v>154560.9010510901</v>
+        <v>195759.37216342</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1.00917004048583</v>
+        <v>1</v>
       </c>
       <c r="N70" t="inlineStr"/>
     </row>
@@ -3180,28 +3210,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C71" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="D71" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="E71" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F71" t="n">
-        <v>128.6419</v>
+        <v>7048</v>
       </c>
       <c r="G71" t="n">
-        <v>154432.2591510901</v>
+        <v>188711.37216342</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3219,25 +3249,25 @@
         <v>49.9</v>
       </c>
       <c r="C72" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
         <v>49.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5774</v>
+        <v>13000</v>
       </c>
       <c r="G72" t="n">
-        <v>154432.2591510901</v>
+        <v>201711.37216342</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3252,28 +3282,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C73" t="n">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="D73" t="n">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="E73" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="F73" t="n">
-        <v>1004.2275</v>
+        <v>12870.741</v>
       </c>
       <c r="G73" t="n">
-        <v>154432.2591510901</v>
+        <v>214582.11316342</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3288,28 +3318,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C74" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="D74" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E74" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>32400</v>
       </c>
       <c r="G74" t="n">
-        <v>154432.2591510901</v>
+        <v>182182.11316342</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3324,28 +3354,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>50.1</v>
+        <v>49.7</v>
       </c>
       <c r="C75" t="n">
-        <v>50.2</v>
+        <v>49.7</v>
       </c>
       <c r="D75" t="n">
-        <v>50.2</v>
+        <v>49.7</v>
       </c>
       <c r="E75" t="n">
-        <v>50.1</v>
+        <v>49.7</v>
       </c>
       <c r="F75" t="n">
-        <v>10000</v>
+        <v>290.5695</v>
       </c>
       <c r="G75" t="n">
-        <v>164432.2591510901</v>
+        <v>182472.68266342</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3360,28 +3390,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="D76" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="E76" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>148.5516</v>
       </c>
       <c r="G76" t="n">
-        <v>163432.2591510901</v>
+        <v>182472.68266342</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3396,28 +3426,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
       <c r="C77" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="D77" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="E77" t="n">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
       <c r="F77" t="n">
-        <v>85.2788</v>
+        <v>5030</v>
       </c>
       <c r="G77" t="n">
-        <v>163517.5379510901</v>
+        <v>187502.68266342</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3432,28 +3462,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D78" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F78" t="n">
-        <v>1004.2275</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>162513.3104510901</v>
+        <v>187502.68266342</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3468,28 +3498,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="C79" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="D79" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="E79" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="F79" t="n">
-        <v>40000</v>
+        <v>17</v>
       </c>
       <c r="G79" t="n">
-        <v>122513.3104510901</v>
+        <v>187485.68266342</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3504,28 +3534,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="C80" t="n">
-        <v>50.2</v>
+        <v>49.7</v>
       </c>
       <c r="D80" t="n">
-        <v>50.2</v>
+        <v>49.7</v>
       </c>
       <c r="E80" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F80" t="n">
-        <v>18608.1274</v>
+        <v>3875.9793</v>
       </c>
       <c r="G80" t="n">
-        <v>141121.4378510901</v>
+        <v>191361.66196342</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3540,28 +3570,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="C81" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="D81" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="E81" t="n">
-        <v>50.3</v>
+        <v>49.3</v>
       </c>
       <c r="F81" t="n">
-        <v>75.2286</v>
+        <v>25407.8611</v>
       </c>
       <c r="G81" t="n">
-        <v>141196.6664510901</v>
+        <v>165953.80086342</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3576,28 +3606,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>50.2</v>
+        <v>49.3</v>
       </c>
       <c r="C82" t="n">
-        <v>50.2</v>
+        <v>49.3</v>
       </c>
       <c r="D82" t="n">
-        <v>50.2</v>
+        <v>49.3</v>
       </c>
       <c r="E82" t="n">
-        <v>50.2</v>
+        <v>49.3</v>
       </c>
       <c r="F82" t="n">
-        <v>400</v>
+        <v>20384.1187</v>
       </c>
       <c r="G82" t="n">
-        <v>140796.6664510901</v>
+        <v>165953.80086342</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3612,28 +3642,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="C83" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="F83" t="n">
-        <v>2132.1235</v>
+        <v>6200</v>
       </c>
       <c r="G83" t="n">
-        <v>140796.6664510901</v>
+        <v>172153.80086342</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3648,28 +3678,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="C84" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="E84" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F84" t="n">
-        <v>56425.8152</v>
+        <v>2182.9062</v>
       </c>
       <c r="G84" t="n">
-        <v>84370.85125109008</v>
+        <v>169970.89466342</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3684,28 +3714,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C85" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D85" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E85" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F85" t="n">
-        <v>23105.9716</v>
+        <v>117.0938</v>
       </c>
       <c r="G85" t="n">
-        <v>61264.87965109007</v>
+        <v>169970.89466342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3720,28 +3750,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C86" t="n">
         <v>49.6</v>
       </c>
       <c r="D86" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="E86" t="n">
         <v>49.6</v>
       </c>
       <c r="F86" t="n">
-        <v>13827.8209</v>
+        <v>6194.7684</v>
       </c>
       <c r="G86" t="n">
-        <v>47437.05875109007</v>
+        <v>176165.66306342</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3756,28 +3786,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C87" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="D87" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="E87" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="F87" t="n">
-        <v>2293.8028</v>
+        <v>2844.9387</v>
       </c>
       <c r="G87" t="n">
-        <v>49730.86155109007</v>
+        <v>179010.60176342</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3792,22 +3822,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C88" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="D88" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="E88" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F88" t="n">
-        <v>17600</v>
+        <v>3805.2316</v>
       </c>
       <c r="G88" t="n">
-        <v>49730.86155109007</v>
+        <v>175205.37016342</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3828,22 +3858,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C89" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D89" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E89" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F89" t="n">
-        <v>2033</v>
+        <v>25312.1967</v>
       </c>
       <c r="G89" t="n">
-        <v>49730.86155109007</v>
+        <v>149893.17346342</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3864,22 +3894,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C90" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D90" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E90" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F90" t="n">
-        <v>12542.9998</v>
+        <v>224.2114</v>
       </c>
       <c r="G90" t="n">
-        <v>49730.86155109007</v>
+        <v>149893.17346342</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3900,22 +3930,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="C91" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D91" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E91" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F91" t="n">
-        <v>1460</v>
+        <v>282.1795</v>
       </c>
       <c r="G91" t="n">
-        <v>48270.86155109007</v>
+        <v>149610.99396342</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3936,22 +3966,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="C92" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D92" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="E92" t="n">
-        <v>49.6</v>
+        <v>48.8</v>
       </c>
       <c r="F92" t="n">
-        <v>44622.4341</v>
+        <v>17653.3933</v>
       </c>
       <c r="G92" t="n">
-        <v>48270.86155109007</v>
+        <v>149610.99396342</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3972,22 +4002,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="C93" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D93" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E93" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F93" t="n">
-        <v>2524</v>
+        <v>16864.7433</v>
       </c>
       <c r="G93" t="n">
-        <v>48270.86155109007</v>
+        <v>149610.99396342</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4008,22 +4038,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="C94" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D94" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="E94" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="F94" t="n">
-        <v>19433.6366</v>
+        <v>21767.21</v>
       </c>
       <c r="G94" t="n">
-        <v>48270.86155109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4044,22 +4074,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C95" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D95" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E95" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F95" t="n">
-        <v>61.4501</v>
+        <v>2151496.36</v>
       </c>
       <c r="G95" t="n">
-        <v>48209.41145109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4080,22 +4110,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C96" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D96" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E96" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F96" t="n">
-        <v>11200</v>
+        <v>4832477.86</v>
       </c>
       <c r="G96" t="n">
-        <v>59409.41145109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4116,22 +4146,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C97" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D97" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E97" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F97" t="n">
-        <v>20000</v>
+        <v>1761993.4317</v>
       </c>
       <c r="G97" t="n">
-        <v>59409.41145109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4152,22 +4182,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C98" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D98" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E98" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F98" t="n">
-        <v>20200</v>
+        <v>3267048.3027</v>
       </c>
       <c r="G98" t="n">
-        <v>59409.41145109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4188,22 +4218,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C99" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D99" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E99" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F99" t="n">
-        <v>7337.612</v>
+        <v>3219179.4631</v>
       </c>
       <c r="G99" t="n">
-        <v>52071.79945109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4224,22 +4254,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="C100" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D100" t="n">
         <v>49.6</v>
       </c>
       <c r="E100" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="F100" t="n">
-        <v>57626</v>
+        <v>3207412.2532</v>
       </c>
       <c r="G100" t="n">
-        <v>109697.7994510901</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4260,35 +4290,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C101" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D101" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E101" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F101" t="n">
-        <v>2704.9609</v>
+        <v>3231146.673</v>
       </c>
       <c r="G101" t="n">
-        <v>106992.8385510901</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K101" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4300,40 +4326,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C102" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D102" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E102" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F102" t="n">
-        <v>13400</v>
+        <v>3219179.4631</v>
       </c>
       <c r="G102" t="n">
-        <v>106992.8385510901</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4344,40 +4362,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C103" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D103" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E103" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F103" t="n">
-        <v>2869.1019</v>
+        <v>2321638.7206</v>
       </c>
       <c r="G103" t="n">
-        <v>106992.8385510901</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4400,23 +4410,19 @@
         <v>49.4</v>
       </c>
       <c r="F104" t="n">
-        <v>23789.3472</v>
+        <v>8232.790300000001</v>
       </c>
       <c r="G104" t="n">
-        <v>83203.49135109007</v>
+        <v>171378.20396342</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4428,40 +4434,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C105" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D105" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E105" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F105" t="n">
-        <v>58200</v>
+        <v>38799</v>
       </c>
       <c r="G105" t="n">
-        <v>141403.4913510901</v>
+        <v>210177.20396342</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K105" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4472,40 +4470,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C106" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D106" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E106" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F106" t="n">
-        <v>10000</v>
+        <v>3045.5881</v>
       </c>
       <c r="G106" t="n">
-        <v>151403.4913510901</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K106" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4516,40 +4506,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C107" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D107" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E107" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F107" t="n">
-        <v>1445.5913</v>
+        <v>1002.0237</v>
       </c>
       <c r="G107" t="n">
-        <v>151403.4913510901</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K107" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4560,38 +4542,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E108" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F108" t="n">
-        <v>2288.0683</v>
+        <v>6391.9998</v>
       </c>
       <c r="G108" t="n">
-        <v>149115.4230510901</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4602,38 +4578,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C109" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D109" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E109" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F109" t="n">
-        <v>420.992</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>149536.4150510901</v>
+        <v>207131.61586342</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4644,38 +4614,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="C110" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D110" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E110" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="F110" t="n">
-        <v>8371.983899999999</v>
+        <v>2008.03212851</v>
       </c>
       <c r="G110" t="n">
-        <v>157908.3989510901</v>
+        <v>209139.64799193</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4686,38 +4650,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C111" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="D111" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E111" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="F111" t="n">
-        <v>8141</v>
+        <v>15101.788</v>
       </c>
       <c r="G111" t="n">
-        <v>149767.3989510901</v>
+        <v>194037.85999193</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4728,38 +4686,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="C112" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="D112" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="E112" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="F112" t="n">
-        <v>321.973</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>149767.3989510901</v>
+        <v>194037.85999193</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4770,38 +4722,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C113" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D113" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E113" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F113" t="n">
-        <v>2637</v>
+        <v>11600</v>
       </c>
       <c r="G113" t="n">
-        <v>147130.3989510901</v>
+        <v>194037.85999193</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4812,22 +4758,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C114" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D114" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E114" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>1026.8734</v>
       </c>
       <c r="G114" t="n">
-        <v>147140.3989510901</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4836,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4854,40 +4794,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C115" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D115" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E115" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F115" t="n">
-        <v>3258.9999</v>
+        <v>1597.9999</v>
       </c>
       <c r="G115" t="n">
-        <v>143881.3990510901</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K115" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4898,40 +4830,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C116" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D116" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E116" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F116" t="n">
-        <v>1548.1847</v>
+        <v>1594.0049</v>
       </c>
       <c r="G116" t="n">
-        <v>145429.5837510901</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>1.001060606060606</v>
+        <v>1</v>
       </c>
       <c r="N116" t="inlineStr"/>
     </row>
@@ -4940,22 +4866,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C117" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D117" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E117" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F117" t="n">
-        <v>86.0924</v>
+        <v>728.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>145429.5837510901</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4964,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4982,22 +4902,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="C118" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D118" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E118" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F118" t="n">
-        <v>4600</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>145429.5837510901</v>
+        <v>195064.73339193</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5013,6 +4933,2562 @@
       </c>
       <c r="N118" t="inlineStr"/>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>50</v>
+      </c>
+      <c r="E119" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>200888.538</v>
+      </c>
+      <c r="G119" t="n">
+        <v>195064.73339193</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>22402.2323</v>
+      </c>
+      <c r="G120" t="n">
+        <v>195064.73339193</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10060.1153</v>
+      </c>
+      <c r="G121" t="n">
+        <v>195064.73339193</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1052.2508</v>
+      </c>
+      <c r="G122" t="n">
+        <v>195064.73339193</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6974.2579</v>
+      </c>
+      <c r="G123" t="n">
+        <v>188090.47549193</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6696.9843</v>
+      </c>
+      <c r="G124" t="n">
+        <v>188090.47549193</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>44.70824949</v>
+      </c>
+      <c r="G125" t="n">
+        <v>188135.18374142</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G126" t="n">
+        <v>172935.18374142</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3904.0113</v>
+      </c>
+      <c r="G127" t="n">
+        <v>176839.1950414201</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>166839.1950414201</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1716.7319</v>
+      </c>
+      <c r="G129" t="n">
+        <v>166839.1950414201</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30000.2007</v>
+      </c>
+      <c r="G130" t="n">
+        <v>136838.9943414201</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>42.33870967</v>
+      </c>
+      <c r="G131" t="n">
+        <v>136881.3330510901</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4461.9264</v>
+      </c>
+      <c r="G132" t="n">
+        <v>132419.4066510901</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>50</v>
+      </c>
+      <c r="D133" t="n">
+        <v>50</v>
+      </c>
+      <c r="E133" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6736.2736</v>
+      </c>
+      <c r="G133" t="n">
+        <v>139155.6802510901</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>733.5302</v>
+      </c>
+      <c r="G134" t="n">
+        <v>138422.1500510901</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1599.1967</v>
+      </c>
+      <c r="G135" t="n">
+        <v>138422.1500510901</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9104.006799999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>129318.1432510901</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5379.38</v>
+      </c>
+      <c r="G137" t="n">
+        <v>123938.7632510901</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10297.3054</v>
+      </c>
+      <c r="G138" t="n">
+        <v>123938.7632510901</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2022.1378</v>
+      </c>
+      <c r="G139" t="n">
+        <v>125960.9010510901</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G140" t="n">
+        <v>125960.9010510901</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>50</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>50</v>
+      </c>
+      <c r="F141" t="n">
+        <v>28600</v>
+      </c>
+      <c r="G141" t="n">
+        <v>154560.9010510901</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>128.6419</v>
+      </c>
+      <c r="G142" t="n">
+        <v>154432.2591510901</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5774</v>
+      </c>
+      <c r="G143" t="n">
+        <v>154432.2591510901</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1004.2275</v>
+      </c>
+      <c r="G144" t="n">
+        <v>154432.2591510901</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>154432.2591510901</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>164432.2591510901</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>50</v>
+      </c>
+      <c r="C147" t="n">
+        <v>50</v>
+      </c>
+      <c r="D147" t="n">
+        <v>50</v>
+      </c>
+      <c r="E147" t="n">
+        <v>50</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>163432.2591510901</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>85.2788</v>
+      </c>
+      <c r="G148" t="n">
+        <v>163517.5379510901</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>50</v>
+      </c>
+      <c r="C149" t="n">
+        <v>50</v>
+      </c>
+      <c r="D149" t="n">
+        <v>50</v>
+      </c>
+      <c r="E149" t="n">
+        <v>50</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1004.2275</v>
+      </c>
+      <c r="G149" t="n">
+        <v>162513.3104510901</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>50</v>
+      </c>
+      <c r="C150" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>50</v>
+      </c>
+      <c r="E150" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>122513.3104510901</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F151" t="n">
+        <v>18608.1274</v>
+      </c>
+      <c r="G151" t="n">
+        <v>141121.4378510901</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>75.2286</v>
+      </c>
+      <c r="G152" t="n">
+        <v>141196.6664510901</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>140796.6664510901</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2132.1235</v>
+      </c>
+      <c r="G154" t="n">
+        <v>140796.6664510901</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>50</v>
+      </c>
+      <c r="C155" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>50</v>
+      </c>
+      <c r="E155" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>56425.8152</v>
+      </c>
+      <c r="G155" t="n">
+        <v>84370.85125109008</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23105.9716</v>
+      </c>
+      <c r="G156" t="n">
+        <v>61264.87965109007</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>13827.8209</v>
+      </c>
+      <c r="G157" t="n">
+        <v>47437.05875109007</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2293.8028</v>
+      </c>
+      <c r="G158" t="n">
+        <v>49730.86155109007</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17600</v>
+      </c>
+      <c r="G159" t="n">
+        <v>49730.86155109007</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2033</v>
+      </c>
+      <c r="G160" t="n">
+        <v>49730.86155109007</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12542.9998</v>
+      </c>
+      <c r="G161" t="n">
+        <v>49730.86155109007</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1460</v>
+      </c>
+      <c r="G162" t="n">
+        <v>48270.86155109007</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>44622.4341</v>
+      </c>
+      <c r="G163" t="n">
+        <v>48270.86155109007</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2524</v>
+      </c>
+      <c r="G164" t="n">
+        <v>48270.86155109007</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19433.6366</v>
+      </c>
+      <c r="G165" t="n">
+        <v>48270.86155109007</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>61.4501</v>
+      </c>
+      <c r="G166" t="n">
+        <v>48209.41145109007</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G167" t="n">
+        <v>59409.41145109007</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>59409.41145109007</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20200</v>
+      </c>
+      <c r="G169" t="n">
+        <v>59409.41145109007</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7337.612</v>
+      </c>
+      <c r="G170" t="n">
+        <v>52071.79945109007</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>57626</v>
+      </c>
+      <c r="G171" t="n">
+        <v>109697.7994510901</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2704.9609</v>
+      </c>
+      <c r="G172" t="n">
+        <v>106992.8385510901</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>106992.8385510901</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2869.1019</v>
+      </c>
+      <c r="G174" t="n">
+        <v>106992.8385510901</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>23789.3472</v>
+      </c>
+      <c r="G175" t="n">
+        <v>83203.49135109007</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>58200</v>
+      </c>
+      <c r="G176" t="n">
+        <v>141403.4913510901</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>151403.4913510901</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1445.5913</v>
+      </c>
+      <c r="G178" t="n">
+        <v>151403.4913510901</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2288.0683</v>
+      </c>
+      <c r="G179" t="n">
+        <v>149115.4230510901</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>420.992</v>
+      </c>
+      <c r="G180" t="n">
+        <v>149536.4150510901</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C181" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8371.983899999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>157908.3989510901</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8141</v>
+      </c>
+      <c r="G182" t="n">
+        <v>149767.3989510901</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>321.973</v>
+      </c>
+      <c r="G183" t="n">
+        <v>149767.3989510901</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2637</v>
+      </c>
+      <c r="G184" t="n">
+        <v>147130.3989510901</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10</v>
+      </c>
+      <c r="G185" t="n">
+        <v>147140.3989510901</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3258.9999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>143881.3990510901</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C187" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1548.1847</v>
+      </c>
+      <c r="G187" t="n">
+        <v>145429.5837510901</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>86.0924</v>
+      </c>
+      <c r="G188" t="n">
+        <v>145429.5837510901</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G189" t="n">
+        <v>145429.5837510901</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-93892.10570000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-93792.10570000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="J3" t="n">
         <v>48.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>-93792.10570000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="K4" t="n">
         <v>48.4</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +560,23 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J5" t="n">
         <v>48.4</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,16 +603,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,16 +636,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,16 +669,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,22 +700,19 @@
         <v>-98287.39260000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="J9" t="n">
         <v>48.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,26 +737,23 @@
         <v>-95471.00130000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="J10" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>48.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -810,26 +778,23 @@
         <v>-95471.00130000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="J11" t="n">
         <v>48.5</v>
       </c>
-      <c r="K11" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,26 +819,23 @@
         <v>-95471.00130000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="J12" t="n">
         <v>48.5</v>
       </c>
-      <c r="K12" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,26 +860,23 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="J13" t="n">
         <v>48.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,26 +901,23 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="J14" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>48.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -986,26 +942,23 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="J15" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>48.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1030,26 +983,21 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>48.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1074,24 +1022,23 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>48.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,22 +1065,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1158,24 +1102,23 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>48.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,24 +1143,23 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>49.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1244,22 +1186,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,24 +1223,23 @@
         <v>-38440.69180000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>49.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1326,24 +1264,23 @@
         <v>-15410.85350000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>49.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,22 +1307,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1412,22 +1346,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1454,22 +1385,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1496,22 +1424,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1538,22 +1463,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1580,22 +1502,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1622,22 +1541,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1664,22 +1580,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1706,22 +1619,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1748,22 +1658,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1790,22 +1697,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1832,22 +1736,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1874,22 +1775,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1916,22 +1814,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1958,22 +1853,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2000,22 +1892,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2042,22 +1931,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2084,22 +1970,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2126,22 +2009,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2168,22 +2048,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2210,22 +2087,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2252,22 +2126,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2294,22 +2165,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2336,22 +2204,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2378,22 +2243,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2420,22 +2282,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2462,22 +2321,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2504,22 +2360,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1.032113402061856</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2546,16 +2399,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2582,16 +2438,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2618,16 +2477,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2654,16 +2516,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2690,16 +2555,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2726,16 +2594,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2762,16 +2633,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2798,16 +2672,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2834,16 +2711,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2870,16 +2750,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2906,16 +2789,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2942,16 +2828,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2978,16 +2867,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3014,16 +2906,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3050,16 +2945,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3086,16 +2984,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3122,16 +3023,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3158,16 +3062,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3194,16 +3101,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3230,16 +3140,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3266,16 +3179,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3302,16 +3218,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3338,16 +3257,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3374,16 +3296,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3410,16 +3335,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3446,16 +3374,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3482,16 +3413,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3518,16 +3452,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3554,16 +3491,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3590,16 +3530,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3626,16 +3569,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3662,16 +3608,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3698,16 +3647,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3734,16 +3686,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3770,16 +3725,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3806,16 +3764,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3842,16 +3803,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3878,16 +3842,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3914,16 +3881,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3950,16 +3920,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3986,16 +3959,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4022,16 +3998,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4058,16 +4037,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4092,18 +4074,21 @@
         <v>171378.20396342</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4128,18 +4113,21 @@
         <v>171378.20396342</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4166,16 +4154,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4202,16 +4193,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4238,16 +4232,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4272,18 +4269,21 @@
         <v>171378.20396342</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4310,16 +4310,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4346,16 +4349,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4382,16 +4388,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4416,18 +4425,21 @@
         <v>171378.20396342</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4452,18 +4464,21 @@
         <v>210177.20396342</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4488,18 +4503,21 @@
         <v>207131.61586342</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4524,18 +4542,21 @@
         <v>207131.61586342</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4560,18 +4581,21 @@
         <v>207131.61586342</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4596,18 +4620,21 @@
         <v>207131.61586342</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4634,16 +4661,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4668,18 +4698,21 @@
         <v>194037.85999193</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4704,18 +4737,21 @@
         <v>194037.85999193</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4740,18 +4776,21 @@
         <v>194037.85999193</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4778,16 +4817,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4814,16 +4856,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4850,16 +4895,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4886,16 +4934,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4922,16 +4973,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4958,16 +5012,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4994,16 +5051,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5030,16 +5090,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5066,16 +5129,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5102,16 +5168,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5138,16 +5207,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5174,16 +5246,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5210,16 +5285,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5246,16 +5324,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5282,16 +5363,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5318,16 +5402,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5354,16 +5441,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5390,16 +5480,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5426,16 +5519,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5462,16 +5558,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5498,16 +5597,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5534,16 +5636,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5570,16 +5675,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5606,16 +5714,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5642,16 +5753,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5678,16 +5792,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5714,16 +5831,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5750,16 +5870,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5786,16 +5909,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5820,18 +5946,21 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.023865979381443</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5856,18 +5985,15 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5894,16 +6020,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5930,16 +6053,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5966,16 +6086,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6002,16 +6119,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6038,16 +6152,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6074,16 +6185,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6108,18 +6216,15 @@
         <v>141121.4378510901</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6144,18 +6249,15 @@
         <v>141196.6664510901</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6182,16 +6284,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6216,18 +6315,15 @@
         <v>140796.6664510901</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6252,18 +6348,15 @@
         <v>84370.85125109008</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6288,18 +6381,15 @@
         <v>61264.87965109007</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6324,18 +6414,15 @@
         <v>47437.05875109007</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6362,16 +6449,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6398,16 +6482,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6434,16 +6515,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6470,16 +6548,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6506,16 +6581,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6542,16 +6614,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6578,16 +6647,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6614,16 +6680,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6650,16 +6713,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6686,16 +6746,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6722,16 +6779,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6758,16 +6812,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6794,16 +6845,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6830,16 +6878,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6866,16 +6911,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6902,16 +6944,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6938,16 +6977,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6974,16 +7010,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7010,16 +7043,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7044,18 +7074,15 @@
         <v>151403.4913510901</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7082,16 +7109,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7118,16 +7142,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7154,16 +7175,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7190,16 +7208,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7226,16 +7241,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7262,16 +7274,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7298,16 +7307,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7334,16 +7340,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7370,16 +7373,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7406,16 +7406,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7442,16 +7439,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7478,18 +7472,15 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-93892.10570000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-93792.10570000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>48.4</v>
@@ -521,9 +521,11 @@
         <v>-93792.10570000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J4" t="n">
         <v>48.4</v>
       </c>
@@ -560,7 +562,7 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>48.6</v>
@@ -601,10 +603,14 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48.7</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -634,11 +640,19 @@
         <v>-93782.10570000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,11 +681,19 @@
         <v>-94551.04080000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,7 +722,7 @@
         <v>-98287.39260000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>48.5</v>
@@ -737,7 +759,7 @@
         <v>-95471.00130000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>48.3</v>
@@ -778,7 +800,7 @@
         <v>-95471.00130000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>48.5</v>
@@ -819,7 +841,7 @@
         <v>-95471.00130000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>48.5</v>
@@ -860,7 +882,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>48.5</v>
@@ -901,7 +923,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>48.9</v>
@@ -942,7 +964,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>48.9</v>
@@ -983,9 +1005,11 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J16" t="n">
         <v>48.5</v>
       </c>
@@ -1022,7 +1046,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>48.9</v>
@@ -1063,9 +1087,11 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J18" t="n">
         <v>48.5</v>
       </c>
@@ -1102,7 +1128,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>48.9</v>
@@ -1143,7 +1169,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>49.1</v>
@@ -1184,9 +1210,11 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>49.1</v>
+      </c>
       <c r="J21" t="n">
         <v>48.5</v>
       </c>
@@ -1223,7 +1251,7 @@
         <v>-38440.69180000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>49.1</v>
@@ -1264,7 +1292,7 @@
         <v>-15410.85350000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>49.2</v>
@@ -1539,9 +1567,11 @@
         <v>-31732.68520000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J30" t="n">
         <v>48.5</v>
       </c>
@@ -1617,9 +1647,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>49.3</v>
+      </c>
       <c r="J32" t="n">
         <v>48.5</v>
       </c>
@@ -1656,9 +1688,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J33" t="n">
         <v>48.5</v>
       </c>
@@ -1695,9 +1729,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J34" t="n">
         <v>48.5</v>
       </c>
@@ -1773,9 +1809,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J36" t="n">
         <v>48.5</v>
       </c>
@@ -2007,9 +2045,11 @@
         <v>-32905.79070000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J42" t="n">
         <v>48.5</v>
       </c>
@@ -2670,7 +2710,7 @@
         <v>190038.6447</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
@@ -2678,11 +2718,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>1.036237113402062</v>
       </c>
       <c r="M59" t="inlineStr"/>
     </row>
@@ -2709,17 +2749,11 @@
         <v>179930.5581</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2748,17 +2782,11 @@
         <v>179930.5581</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2787,17 +2815,11 @@
         <v>207017.32186342</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2826,17 +2848,11 @@
         <v>218913.61376342</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2865,17 +2881,11 @@
         <v>211959.56626342</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2904,17 +2914,11 @@
         <v>208092.56626342</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2943,17 +2947,11 @@
         <v>208092.56626342</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2982,17 +2980,11 @@
         <v>190898.03926342</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3021,17 +3013,11 @@
         <v>171864.86846342</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3060,17 +3046,11 @@
         <v>190253.75896342</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3099,17 +3079,11 @@
         <v>195759.37216342</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3138,17 +3112,11 @@
         <v>188711.37216342</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3177,17 +3145,11 @@
         <v>201711.37216342</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3216,17 +3178,11 @@
         <v>214582.11316342</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3255,17 +3211,11 @@
         <v>182182.11316342</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3294,17 +3244,11 @@
         <v>182472.68266342</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3333,17 +3277,11 @@
         <v>182472.68266342</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3372,17 +3310,11 @@
         <v>187502.68266342</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3411,17 +3343,11 @@
         <v>187502.68266342</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3450,17 +3376,11 @@
         <v>187485.68266342</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3489,17 +3409,11 @@
         <v>191361.66196342</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3528,17 +3442,11 @@
         <v>165953.80086342</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3567,17 +3475,11 @@
         <v>165953.80086342</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3606,17 +3508,11 @@
         <v>172153.80086342</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3645,17 +3541,11 @@
         <v>169970.89466342</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3684,17 +3574,11 @@
         <v>169970.89466342</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3723,17 +3607,11 @@
         <v>176165.66306342</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3762,17 +3640,11 @@
         <v>179010.60176342</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3801,17 +3673,11 @@
         <v>175205.37016342</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3840,17 +3706,11 @@
         <v>149893.17346342</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3739,11 @@
         <v>149893.17346342</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3772,11 @@
         <v>149610.99396342</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3960,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3999,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3871,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +3904,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +3937,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +3970,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +4003,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4230,17 +4036,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4269,17 +4069,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4308,17 +4102,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4347,17 +4135,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4386,17 +4168,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4425,17 +4201,11 @@
         <v>171378.20396342</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4464,17 +4234,11 @@
         <v>210177.20396342</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4503,17 +4267,11 @@
         <v>207131.61586342</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4542,17 +4300,11 @@
         <v>207131.61586342</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4581,17 +4333,11 @@
         <v>207131.61586342</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4620,17 +4366,11 @@
         <v>207131.61586342</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4659,17 +4399,11 @@
         <v>209139.64799193</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4698,17 +4432,11 @@
         <v>194037.85999193</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4737,17 +4465,11 @@
         <v>194037.85999193</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4776,17 +4498,11 @@
         <v>194037.85999193</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4818,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4857,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4896,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4935,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4974,14 +4666,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5013,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5052,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5091,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5130,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5169,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5208,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5244,17 +4894,11 @@
         <v>188135.18374142</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5286,14 +4930,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5322,17 +4960,11 @@
         <v>176839.1950414201</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5364,14 +4996,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5403,14 +5029,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5442,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5478,17 +5092,11 @@
         <v>136881.3330510901</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5517,17 +5125,11 @@
         <v>132419.4066510901</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5556,17 +5158,11 @@
         <v>139155.6802510901</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5595,17 +5191,11 @@
         <v>138422.1500510901</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5634,17 +5224,11 @@
         <v>138422.1500510901</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5676,14 +5260,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5715,14 +5293,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5751,17 +5323,11 @@
         <v>123938.7632510901</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +5359,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5832,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5868,17 +5422,11 @@
         <v>154560.9010510901</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5907,17 +5455,11 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5946,19 +5488,13 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>1.023865979381443</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr"/>
     </row>
@@ -5985,7 +5521,7 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6051,7 +5587,7 @@
         <v>164432.2591510901</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6084,7 +5620,7 @@
         <v>163432.2591510901</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6117,7 +5653,7 @@
         <v>163517.5379510901</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6150,7 +5686,7 @@
         <v>162513.3104510901</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6183,7 +5719,7 @@
         <v>122513.3104510901</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6216,7 +5752,7 @@
         <v>141121.4378510901</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6249,7 +5785,7 @@
         <v>141196.6664510901</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6282,7 +5818,7 @@
         <v>140796.6664510901</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6315,7 +5851,7 @@
         <v>140796.6664510901</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6348,7 +5884,7 @@
         <v>84370.85125109008</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6381,7 +5917,7 @@
         <v>61264.87965109007</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6414,7 +5950,7 @@
         <v>47437.05875109007</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6447,7 +5983,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6480,7 +6016,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6513,7 +6049,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6546,7 +6082,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6579,7 +6115,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6612,7 +6148,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6645,7 +6181,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6678,7 +6214,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6711,7 +6247,7 @@
         <v>48209.41145109007</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6744,7 +6280,7 @@
         <v>59409.41145109007</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6777,7 +6313,7 @@
         <v>59409.41145109007</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6810,7 +6346,7 @@
         <v>59409.41145109007</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6843,7 +6379,7 @@
         <v>52071.79945109007</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6876,7 +6412,7 @@
         <v>109697.7994510901</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6909,7 +6445,7 @@
         <v>106992.8385510901</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6942,7 +6478,7 @@
         <v>106992.8385510901</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6975,7 +6511,7 @@
         <v>106992.8385510901</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7008,7 +6544,7 @@
         <v>83203.49135109007</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7041,7 +6577,7 @@
         <v>141403.4913510901</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7074,7 +6610,7 @@
         <v>151403.4913510901</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7107,7 +6643,7 @@
         <v>151403.4913510901</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7140,7 +6676,7 @@
         <v>149115.4230510901</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7470,7 +7006,7 @@
         <v>145429.5837510901</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7481,6 +7017,6 @@
       <c r="M189" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -964,11 +964,9 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>48.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>48.5</v>
       </c>
@@ -1046,11 +1044,9 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>48.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>48.5</v>
       </c>
@@ -1087,11 +1083,9 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>48.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>48.5</v>
       </c>
@@ -1128,11 +1122,9 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>48.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>48.5</v>
       </c>
@@ -1169,11 +1161,9 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>48.5</v>
       </c>
@@ -1210,21 +1200,19 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>49.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>48.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.007371134020619</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1251,19 +1239,11 @@
         <v>-38440.69180000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1292,19 +1272,11 @@
         <v>-15410.85350000002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1333,17 +1305,11 @@
         <v>-15729.37820000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1372,17 +1338,11 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1411,17 +1371,11 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1450,17 +1404,11 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1489,17 +1437,11 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1528,17 +1470,11 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1567,19 +1503,11 @@
         <v>-31732.68520000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1611,14 +1539,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1647,19 +1569,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1688,19 +1602,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1729,19 +1635,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1773,14 +1671,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1809,19 +1701,11 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1853,14 +1737,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1892,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1931,14 +1803,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1970,14 +1836,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2009,14 +1869,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2045,19 +1899,11 @@
         <v>-32905.79070000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2089,14 +1935,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2128,14 +1968,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2167,14 +2001,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2206,14 +2034,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2245,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2284,14 +2100,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2133,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2166,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2401,14 +2199,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2440,14 +2232,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2479,14 +2265,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2557,14 +2331,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2596,14 +2364,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2635,14 +2397,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2674,14 +2430,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2710,19 +2460,13 @@
         <v>190038.6447</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.036237113402062</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
     </row>
@@ -2749,7 +2493,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2782,7 +2526,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2815,7 +2559,7 @@
         <v>207017.32186342</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2848,7 +2592,7 @@
         <v>218913.61376342</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2881,7 +2625,7 @@
         <v>211959.56626342</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2914,7 +2658,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2947,7 +2691,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2980,7 +2724,7 @@
         <v>190898.03926342</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3013,7 +2757,7 @@
         <v>171864.86846342</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3046,7 +2790,7 @@
         <v>190253.75896342</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3079,7 +2823,7 @@
         <v>195759.37216342</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3112,7 +2856,7 @@
         <v>188711.37216342</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3145,7 +2889,7 @@
         <v>201711.37216342</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3178,7 +2922,7 @@
         <v>214582.11316342</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3211,7 +2955,7 @@
         <v>182182.11316342</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3244,7 +2988,7 @@
         <v>182472.68266342</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3277,7 +3021,7 @@
         <v>182472.68266342</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3310,7 +3054,7 @@
         <v>187502.68266342</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3343,7 +3087,7 @@
         <v>187502.68266342</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3376,7 +3120,7 @@
         <v>187485.68266342</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3409,7 +3153,7 @@
         <v>191361.66196342</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3442,7 +3186,7 @@
         <v>165953.80086342</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3475,7 +3219,7 @@
         <v>165953.80086342</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3508,7 +3252,7 @@
         <v>172153.80086342</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3541,7 +3285,7 @@
         <v>169970.89466342</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3574,7 +3318,7 @@
         <v>169970.89466342</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3607,7 +3351,7 @@
         <v>176165.66306342</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3640,7 +3384,7 @@
         <v>179010.60176342</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3673,7 +3417,7 @@
         <v>175205.37016342</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3706,7 +3450,7 @@
         <v>149893.17346342</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3739,7 +3483,7 @@
         <v>149893.17346342</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3772,7 +3516,7 @@
         <v>149610.99396342</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3871,7 +3615,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3937,7 +3681,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3970,7 +3714,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4003,7 +3747,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4036,7 +3780,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4069,7 +3813,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4102,7 +3846,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4135,7 +3879,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4168,7 +3912,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4201,7 +3945,7 @@
         <v>171378.20396342</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4234,7 +3978,7 @@
         <v>210177.20396342</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4267,7 +4011,7 @@
         <v>207131.61586342</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4300,7 +4044,7 @@
         <v>207131.61586342</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4333,7 +4077,7 @@
         <v>207131.61586342</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4366,7 +4110,7 @@
         <v>207131.61586342</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4399,7 +4143,7 @@
         <v>209139.64799193</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4432,7 +4176,7 @@
         <v>194037.85999193</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4894,7 +4638,7 @@
         <v>188135.18374142</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4960,7 +4704,7 @@
         <v>176839.1950414201</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5092,7 +4836,7 @@
         <v>136881.3330510901</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5125,7 +4869,7 @@
         <v>132419.4066510901</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5158,7 +4902,7 @@
         <v>139155.6802510901</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5191,7 +4935,7 @@
         <v>138422.1500510901</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5224,7 +4968,7 @@
         <v>138422.1500510901</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5323,7 +5067,7 @@
         <v>123938.7632510901</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5422,7 +5166,7 @@
         <v>154560.9010510901</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5455,7 +5199,7 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5488,7 +5232,7 @@
         <v>154432.2591510901</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5587,7 +5331,7 @@
         <v>164432.2591510901</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5620,7 +5364,7 @@
         <v>163432.2591510901</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5653,7 +5397,7 @@
         <v>163517.5379510901</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5686,7 +5430,7 @@
         <v>162513.3104510901</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5719,7 +5463,7 @@
         <v>122513.3104510901</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5752,7 +5496,7 @@
         <v>141121.4378510901</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5785,7 +5529,7 @@
         <v>141196.6664510901</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5818,7 +5562,7 @@
         <v>140796.6664510901</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5851,7 +5595,7 @@
         <v>140796.6664510901</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5884,7 +5628,7 @@
         <v>84370.85125109008</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5917,7 +5661,7 @@
         <v>61264.87965109007</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5950,7 +5694,7 @@
         <v>47437.05875109007</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5983,7 +5727,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6016,7 +5760,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6049,7 +5793,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6082,7 +5826,7 @@
         <v>49730.86155109007</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6115,7 +5859,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6148,7 +5892,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6181,7 +5925,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6214,7 +5958,7 @@
         <v>48270.86155109007</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6247,7 +5991,7 @@
         <v>48209.41145109007</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6280,7 +6024,7 @@
         <v>59409.41145109007</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6313,7 +6057,7 @@
         <v>59409.41145109007</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6346,7 +6090,7 @@
         <v>59409.41145109007</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6379,7 +6123,7 @@
         <v>52071.79945109007</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6412,7 +6156,7 @@
         <v>109697.7994510901</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6445,7 +6189,7 @@
         <v>106992.8385510901</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6478,7 +6222,7 @@
         <v>106992.8385510901</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6511,7 +6255,7 @@
         <v>106992.8385510901</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6544,7 +6288,7 @@
         <v>83203.49135109007</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6577,7 +6321,7 @@
         <v>141403.4913510901</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6610,7 +6354,7 @@
         <v>151403.4913510901</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6643,7 +6387,7 @@
         <v>151403.4913510901</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6676,7 +6420,7 @@
         <v>149115.4230510901</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7006,7 +6750,7 @@
         <v>145429.5837510901</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7017,6 +6761,6 @@
       <c r="M189" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -964,9 +964,11 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J15" t="n">
         <v>48.5</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
@@ -1083,7 +1085,7 @@
         <v>-59471.00130000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -1122,7 +1124,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
@@ -1161,7 +1163,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1200,7 +1202,7 @@
         <v>-39466.85180000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
@@ -1208,11 +1210,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.007371134020619</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1239,11 +1241,17 @@
         <v>-38440.69180000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1272,11 +1280,17 @@
         <v>-15410.85350000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1305,11 +1319,17 @@
         <v>-15729.37820000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1338,11 +1358,17 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1371,11 +1397,17 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1404,11 +1436,17 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,11 +1475,17 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1514,17 @@
         <v>-15440.21150000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1506,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1539,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1569,11 +1631,17 @@
         <v>-28245.72500000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1605,8 +1673,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1638,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1671,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1704,8 +1790,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1737,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1770,8 +1868,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1803,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1836,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1869,8 +1985,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1902,8 +2024,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1935,8 +2063,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1968,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2001,8 +2141,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2034,8 +2180,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2219,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2100,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2133,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2166,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2199,8 +2375,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2232,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2265,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2298,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2328,13 +2528,19 @@
         <v>173039.8419</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>1.038298969072165</v>
       </c>
       <c r="M55" t="inlineStr"/>
     </row>
@@ -2361,7 +2567,7 @@
         <v>168750.8419</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2394,7 +2600,7 @@
         <v>190670.1284</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2427,7 +2633,7 @@
         <v>190670.1284</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2460,7 +2666,7 @@
         <v>190038.6447</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2493,7 +2699,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2526,7 +2732,7 @@
         <v>179930.5581</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2559,7 +2765,7 @@
         <v>207017.32186342</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2592,7 +2798,7 @@
         <v>218913.61376342</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2625,7 +2831,7 @@
         <v>211959.56626342</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2658,7 +2864,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2691,7 +2897,7 @@
         <v>208092.56626342</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2724,7 +2930,7 @@
         <v>190898.03926342</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2757,7 +2963,7 @@
         <v>171864.86846342</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2955,7 +3161,7 @@
         <v>182182.11316342</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest XEM.xlsx
+++ b/BackTest/2019-11-02 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2137</v>
       </c>
       <c r="G2" t="n">
-        <v>-93892.10570000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>-93792.10570000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
         <v>48.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>-93792.10570000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J4" t="n">
         <v>48.4</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-93782.10570000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J5" t="n">
         <v>48.4</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,15 @@
         <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>-93782.10570000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +613,15 @@
         <v>16864.7433</v>
       </c>
       <c r="G7" t="n">
-        <v>-93782.10570000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +643,15 @@
         <v>768.9351</v>
       </c>
       <c r="G8" t="n">
-        <v>-94551.04080000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,22 +673,19 @@
         <v>3736.3518</v>
       </c>
       <c r="G9" t="n">
-        <v>-98287.39260000002</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
         <v>48.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +707,23 @@
         <v>2816.3913</v>
       </c>
       <c r="G10" t="n">
-        <v>-95471.00130000002</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>48.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,26 +745,23 @@
         <v>24839.8532</v>
       </c>
       <c r="G11" t="n">
-        <v>-95471.00130000002</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
         <v>48.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,26 +783,23 @@
         <v>1769</v>
       </c>
       <c r="G12" t="n">
-        <v>-95471.00130000002</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
         <v>48.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -879,26 +821,23 @@
         <v>36000</v>
       </c>
       <c r="G13" t="n">
-        <v>-59471.00130000002</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
         <v>48.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,26 +859,23 @@
         <v>603.2992</v>
       </c>
       <c r="G14" t="n">
-        <v>-59471.00130000002</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>48.9</v>
       </c>
       <c r="I14" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>48.5</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,26 +897,21 @@
         <v>277.0085</v>
       </c>
       <c r="G15" t="n">
-        <v>-59471.00130000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>48.5</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1002,26 +933,21 @@
         <v>2530.3674</v>
       </c>
       <c r="G16" t="n">
-        <v>-59471.00130000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>48.5</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1043,24 +969,21 @@
         <v>12600</v>
       </c>
       <c r="G17" t="n">
-        <v>-59471.00130000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1082,24 +1005,21 @@
         <v>115.8049</v>
       </c>
       <c r="G18" t="n">
-        <v>-59471.00130000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1121,24 +1041,21 @@
         <v>20004.1495</v>
       </c>
       <c r="G19" t="n">
-        <v>-39466.85180000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,24 +1077,21 @@
         <v>407.331</v>
       </c>
       <c r="G20" t="n">
-        <v>-39466.85180000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1199,24 +1113,21 @@
         <v>49.4021</v>
       </c>
       <c r="G21" t="n">
-        <v>-39466.85180000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1238,24 +1149,21 @@
         <v>1026.16</v>
       </c>
       <c r="G22" t="n">
-        <v>-38440.69180000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1277,24 +1185,21 @@
         <v>23029.8383</v>
       </c>
       <c r="G23" t="n">
-        <v>-15410.85350000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1316,24 +1221,21 @@
         <v>318.5247</v>
       </c>
       <c r="G24" t="n">
-        <v>-15729.37820000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1355,24 +1257,21 @@
         <v>289.1667</v>
       </c>
       <c r="G25" t="n">
-        <v>-15440.21150000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1394,24 +1293,21 @@
         <v>5782.543</v>
       </c>
       <c r="G26" t="n">
-        <v>-15440.21150000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1433,24 +1329,21 @@
         <v>294.3648</v>
       </c>
       <c r="G27" t="n">
-        <v>-15440.21150000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1472,24 +1365,21 @@
         <v>837.8803</v>
       </c>
       <c r="G28" t="n">
-        <v>-15440.21150000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1511,24 +1401,21 @@
         <v>52400</v>
       </c>
       <c r="G29" t="n">
-        <v>-15440.21150000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1550,24 +1437,21 @@
         <v>16292.4737</v>
       </c>
       <c r="G30" t="n">
-        <v>-31732.68520000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1589,24 +1473,21 @@
         <v>18098.9918</v>
       </c>
       <c r="G31" t="n">
-        <v>-31732.68520000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1628,24 +1509,21 @@
         <v>3486.9602</v>
       </c>
       <c r="G32" t="n">
-        <v>-28245.72500000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1667,24 +1545,21 @@
         <v>57000</v>
       </c>
       <c r="G33" t="n">
-        <v>-28245.72500000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1706,24 +1581,21 @@
         <v>32470.4944</v>
       </c>
       <c r="G34" t="n">
-        <v>-28245.72500000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1745,24 +1617,21 @@
         <v>4500.0611</v>
       </c>
       <c r="G35" t="n">
-        <v>-28245.72500000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1784,24 +1653,21 @@
         <v>2277.733</v>
       </c>
       <c r="G36" t="n">
-        <v>-28245.72500000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1823,24 +1689,21 @@
         <v>1175.089</v>
       </c>
       <c r="G37" t="n">
-        <v>-27070.63600000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1862,24 +1725,21 @@
         <v>314.0696</v>
       </c>
       <c r="G38" t="n">
-        <v>-27070.63600000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1901,24 +1761,21 @@
         <v>5250.6453</v>
       </c>
       <c r="G39" t="n">
-        <v>-32321.28130000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1940,24 +1797,21 @@
         <v>9116.6351</v>
       </c>
       <c r="G40" t="n">
-        <v>-41437.91640000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1979,24 +1833,21 @@
         <v>8532.125700000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-32905.79070000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2018,24 +1869,21 @@
         <v>655.9095</v>
       </c>
       <c r="G42" t="n">
-        <v>-32905.79070000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2057,24 +1905,21 @@
         <v>9402.7855</v>
       </c>
       <c r="G43" t="n">
-        <v>-23503.00520000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,24 +1941,21 @@
         <v>32344.8836</v>
       </c>
       <c r="G44" t="n">
-        <v>8841.878399999987</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2135,24 +1977,21 @@
         <v>16992.0397</v>
       </c>
       <c r="G45" t="n">
-        <v>8841.878399999987</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,24 +2013,21 @@
         <v>6600</v>
       </c>
       <c r="G46" t="n">
-        <v>8841.878399999987</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2213,24 +2049,21 @@
         <v>54727.6875</v>
       </c>
       <c r="G47" t="n">
-        <v>63569.56589999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,24 +2085,21 @@
         <v>11704.8303</v>
       </c>
       <c r="G48" t="n">
-        <v>75274.39619999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2291,24 +2121,21 @@
         <v>11374.9448</v>
       </c>
       <c r="G49" t="n">
-        <v>86649.34099999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,24 +2157,21 @@
         <v>347.2801</v>
       </c>
       <c r="G50" t="n">
-        <v>86649.34099999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2369,24 +2193,21 @@
         <v>19742.12723658</v>
       </c>
       <c r="G51" t="n">
-        <v>86649.34099999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,24 +2229,21 @@
         <v>248.5089</v>
       </c>
       <c r="G52" t="n">
-        <v>86649.34099999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2447,24 +2265,21 @@
         <v>53916.5009</v>
       </c>
       <c r="G53" t="n">
-        <v>140565.8419</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,24 +2301,21 @@
         <v>35380.7142</v>
       </c>
       <c r="G54" t="n">
-        <v>140565.8419</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2525,24 +2337,21 @@
         <v>32474</v>
       </c>
       <c r="G55" t="n">
-        <v>173039.8419</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L55" t="n">
+      <c r="K55" t="n">
         <v>1.038298969072165</v>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,18 +2373,15 @@
         <v>4289</v>
       </c>
       <c r="G56" t="n">
-        <v>168750.8419</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2597,18 +2403,15 @@
         <v>21919.2865</v>
       </c>
       <c r="G57" t="n">
-        <v>190670.1284</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2630,18 +2433,15 @@
         <v>34662.2644</v>
       </c>
       <c r="G58" t="n">
-        <v>190670.1284</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2663,18 +2463,15 @@
         <v>631.4837</v>
       </c>
       <c r="G59" t="n">
-        <v>190038.6447</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2696,18 +2493,15 @@
         <v>10108.0866</v>
       </c>
       <c r="G60" t="n">
-        <v>179930.5581</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2729,18 +2523,15 @@
         <v>16194.3319</v>
       </c>
       <c r="G61" t="n">
-        <v>179930.5581</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2762,18 +2553,15 @@
         <v>27086.76376342</v>
       </c>
       <c r="G62" t="n">
-        <v>207017.32186342</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2795,18 +2583,15 @@
         <v>11896.2919</v>
       </c>
       <c r="G63" t="n">
-        <v>218913.61376342</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2828,18 +2613,15 @@
         <v>6954.0475</v>
       </c>
       <c r="G64" t="n">
-        <v>211959.56626342</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2861,18 +2643,15 @@
         <v>3867</v>
       </c>
       <c r="G65" t="n">
-        <v>208092.56626342</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2894,18 +2673,15 @@
         <v>5920.537</v>
       </c>
       <c r="G66" t="n">
-        <v>208092.56626342</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2927,18 +2703,15 @@
         <v>17194.527</v>
       </c>
       <c r="G67" t="n">
-        <v>190898.03926342</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2960,18 +2733,15 @@
         <v>19033.1708</v>
       </c>
       <c r="G68" t="n">
-        <v>171864.86846342</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2993,18 +2763,15 @@
         <v>18388.8905</v>
       </c>
       <c r="G69" t="n">
-        <v>190253.75896342</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3026,18 +2793,15 @@
         <v>5505.6132</v>
       </c>
       <c r="G70" t="n">
-        <v>195759.37216342</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3059,18 +2823,15 @@
         <v>7048</v>
       </c>
       <c r="G71" t="n">
-        <v>188711.37216342</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3092,18 +2853,15 @@
         <v>13000</v>
       </c>
       <c r="G72" t="n">
-        <v>201711.37216342</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3125,18 +2883,15 @@
         <v>12870.741</v>
       </c>
       <c r="G73" t="n">
-        <v>214582.11316342</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3158,18 +2913,15 @@
         <v>32400</v>
       </c>
       <c r="G74" t="n">
-        <v>182182.11316342</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3191,18 +2943,15 @@
         <v>290.5695</v>
       </c>
       <c r="G75" t="n">
-        <v>182472.68266342</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3224,18 +2973,15 @@
         <v>148.5516</v>
       </c>
       <c r="G76" t="n">
-        <v>182472.68266342</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3257,18 +3003,15 @@
         <v>5030</v>
       </c>
       <c r="G77" t="n">
-        <v>187502.68266342</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3290,18 +3033,15 @@
         <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>187502.68266342</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3323,18 +3063,15 @@
         <v>17</v>
       </c>
       <c r="G79" t="n">
-        <v>187485.68266342</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3356,18 +3093,15 @@
         <v>3875.9793</v>
       </c>
       <c r="G80" t="n">
-        <v>191361.66196342</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3389,18 +3123,15 @@
         <v>25407.8611</v>
       </c>
       <c r="G81" t="n">
-        <v>165953.80086342</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3422,18 +3153,15 @@
         <v>20384.1187</v>
       </c>
       <c r="G82" t="n">
-        <v>165953.80086342</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3455,18 +3183,15 @@
         <v>6200</v>
       </c>
       <c r="G83" t="n">
-        <v>172153.80086342</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3488,18 +3213,15 @@
         <v>2182.9062</v>
       </c>
       <c r="G84" t="n">
-        <v>169970.89466342</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3521,18 +3243,15 @@
         <v>117.0938</v>
       </c>
       <c r="G85" t="n">
-        <v>169970.89466342</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3554,18 +3273,15 @@
         <v>6194.7684</v>
       </c>
       <c r="G86" t="n">
-        <v>176165.66306342</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3587,18 +3303,15 @@
         <v>2844.9387</v>
       </c>
       <c r="G87" t="n">
-        <v>179010.60176342</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3620,18 +3333,15 @@
         <v>3805.2316</v>
       </c>
       <c r="G88" t="n">
-        <v>175205.37016342</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3653,18 +3363,15 @@
         <v>25312.1967</v>
       </c>
       <c r="G89" t="n">
-        <v>149893.17346342</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3686,18 +3393,15 @@
         <v>224.2114</v>
       </c>
       <c r="G90" t="n">
-        <v>149893.17346342</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3719,18 +3423,15 @@
         <v>282.1795</v>
       </c>
       <c r="G91" t="n">
-        <v>149610.99396342</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3752,18 +3453,15 @@
         <v>17653.3933</v>
       </c>
       <c r="G92" t="n">
-        <v>149610.99396342</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3785,18 +3483,15 @@
         <v>16864.7433</v>
       </c>
       <c r="G93" t="n">
-        <v>149610.99396342</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3818,18 +3513,15 @@
         <v>21767.21</v>
       </c>
       <c r="G94" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3851,18 +3543,15 @@
         <v>2151496.36</v>
       </c>
       <c r="G95" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3884,18 +3573,15 @@
         <v>4832477.86</v>
       </c>
       <c r="G96" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3917,18 +3603,15 @@
         <v>1761993.4317</v>
       </c>
       <c r="G97" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3950,18 +3633,15 @@
         <v>3267048.3027</v>
       </c>
       <c r="G98" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3983,18 +3663,15 @@
         <v>3219179.4631</v>
       </c>
       <c r="G99" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4016,18 +3693,15 @@
         <v>3207412.2532</v>
       </c>
       <c r="G100" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4049,18 +3723,15 @@
         <v>3231146.673</v>
       </c>
       <c r="G101" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4082,18 +3753,15 @@
         <v>3219179.4631</v>
       </c>
       <c r="G102" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4115,18 +3783,15 @@
         <v>2321638.7206</v>
       </c>
       <c r="G103" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,18 +3813,15 @@
         <v>8232.790300000001</v>
       </c>
       <c r="G104" t="n">
-        <v>171378.20396342</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4181,18 +3843,15 @@
         <v>38799</v>
       </c>
       <c r="G105" t="n">
-        <v>210177.20396342</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4214,18 +3873,15 @@
         <v>3045.5881</v>
       </c>
       <c r="G106" t="n">
-        <v>207131.61586342</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4247,18 +3903,15 @@
         <v>1002.0237</v>
       </c>
       <c r="G107" t="n">
-        <v>207131.61586342</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4280,18 +3933,15 @@
         <v>6391.9998</v>
       </c>
       <c r="G108" t="n">
-        <v>207131.61586342</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4313,18 +3963,15 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>207131.61586342</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,18 +3993,15 @@
         <v>2008.03212851</v>
       </c>
       <c r="G110" t="n">
-        <v>209139.64799193</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4379,18 +4023,15 @@
         <v>15101.788</v>
       </c>
       <c r="G111" t="n">
-        <v>194037.85999193</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4412,18 +4053,15 @@
         <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>194037.85999193</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4445,18 +4083,15 @@
         <v>11600</v>
       </c>
       <c r="G113" t="n">
-        <v>194037.85999193</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4478,18 +4113,15 @@
         <v>1026.8734</v>
       </c>
       <c r="G114" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4511,18 +4143,15 @@
         <v>1597.9999</v>
       </c>
       <c r="G115" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4544,18 +4173,15 @@
         <v>1594.0049</v>
       </c>
       <c r="G116" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4577,18 +4203,15 @@
         <v>728.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4610,18 +4233,15 @@
         <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4643,18 +4263,15 @@
         <v>200888.538</v>
       </c>
       <c r="G119" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4676,18 +4293,15 @@
         <v>22402.2323</v>
       </c>
       <c r="G120" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4709,18 +4323,15 @@
         <v>10060.1153</v>
       </c>
       <c r="G121" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4742,18 +4353,15 @@
         <v>1052.2508</v>
       </c>
       <c r="G122" t="n">
-        <v>195064.73339193</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4775,18 +4383,15 @@
         <v>6974.2579</v>
       </c>
       <c r="G123" t="n">
-        <v>188090.47549193</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4808,18 +4413,15 @@
         <v>6696.9843</v>
       </c>
       <c r="G124" t="n">
-        <v>188090.47549193</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4841,18 +4443,15 @@
         <v>44.70824949</v>
       </c>
       <c r="G125" t="n">
-        <v>188135.18374142</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4874,18 +4473,15 @@
         <v>15200</v>
       </c>
       <c r="G126" t="n">
-        <v>172935.18374142</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4907,18 +4503,15 @@
         <v>3904.0113</v>
       </c>
       <c r="G127" t="n">
-        <v>176839.1950414201</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4940,18 +4533,15 @@
         <v>10000</v>
       </c>
       <c r="G128" t="n">
-        <v>166839.1950414201</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4973,18 +4563,15 @@
         <v>1716.7319</v>
       </c>
       <c r="G129" t="n">
-        <v>166839.1950414201</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5006,18 +4593,15 @@
         <v>30000.2007</v>
       </c>
       <c r="G130" t="n">
-        <v>136838.9943414201</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5039,18 +4623,15 @@
         <v>42.33870967</v>
       </c>
       <c r="G131" t="n">
-        <v>136881.3330510901</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5072,18 +4653,15 @@
         <v>4461.9264</v>
       </c>
       <c r="G132" t="n">
-        <v>132419.4066510901</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5105,18 +4683,15 @@
         <v>6736.2736</v>
       </c>
       <c r="G133" t="n">
-        <v>139155.6802510901</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5138,18 +4713,15 @@
         <v>733.5302</v>
       </c>
       <c r="G134" t="n">
-        <v>138422.1500510901</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5171,18 +4743,15 @@
         <v>1599.1967</v>
       </c>
       <c r="G135" t="n">
-        <v>138422.1500510901</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5204,18 +4773,15 @@
         <v>9104.006799999999</v>
       </c>
       <c r="G136" t="n">
-        <v>129318.1432510901</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5237,18 +4803,15 @@
         <v>5379.38</v>
       </c>
       <c r="G137" t="n">
-        <v>123938.7632510901</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5270,18 +4833,15 @@
         <v>10297.3054</v>
       </c>
       <c r="G138" t="n">
-        <v>123938.7632510901</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5303,18 +4863,15 @@
         <v>2022.1378</v>
       </c>
       <c r="G139" t="n">
-        <v>125960.9010510901</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5336,18 +4893,15 @@
         <v>1150</v>
       </c>
       <c r="G140" t="n">
-        <v>125960.9010510901</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5369,18 +4923,15 @@
         <v>28600</v>
       </c>
       <c r="G141" t="n">
-        <v>154560.9010510901</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5402,18 +4953,15 @@
         <v>128.6419</v>
       </c>
       <c r="G142" t="n">
-        <v>154432.2591510901</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5435,18 +4983,15 @@
         <v>5774</v>
       </c>
       <c r="G143" t="n">
-        <v>154432.2591510901</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5468,18 +5013,15 @@
         <v>1004.2275</v>
       </c>
       <c r="G144" t="n">
-        <v>154432.2591510901</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5501,18 +5043,15 @@
         <v>2000</v>
       </c>
       <c r="G145" t="n">
-        <v>154432.2591510901</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5534,18 +5073,15 @@
         <v>10000</v>
       </c>
       <c r="G146" t="n">
-        <v>164432.2591510901</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5567,18 +5103,15 @@
         <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>163432.2591510901</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5600,18 +5133,15 @@
         <v>85.2788</v>
       </c>
       <c r="G148" t="n">
-        <v>163517.5379510901</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5633,18 +5163,15 @@
         <v>1004.2275</v>
       </c>
       <c r="G149" t="n">
-        <v>162513.3104510901</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5666,18 +5193,15 @@
         <v>40000</v>
       </c>
       <c r="G150" t="n">
-        <v>122513.3104510901</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5699,18 +5223,15 @@
         <v>18608.1274</v>
       </c>
       <c r="G151" t="n">
-        <v>141121.4378510901</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5732,18 +5253,15 @@
         <v>75.2286</v>
       </c>
       <c r="G152" t="n">
-        <v>141196.6664510901</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5765,18 +5283,15 @@
         <v>400</v>
       </c>
       <c r="G153" t="n">
-        <v>140796.6664510901</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5798,18 +5313,15 @@
         <v>2132.1235</v>
       </c>
       <c r="G154" t="n">
-        <v>140796.6664510901</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5831,18 +5343,15 @@
         <v>56425.8152</v>
       </c>
       <c r="G155" t="n">
-        <v>84370.85125109008</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5864,18 +5373,15 @@
         <v>23105.9716</v>
       </c>
       <c r="G156" t="n">
-        <v>61264.87965109007</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5897,18 +5403,15 @@
         <v>13827.8209</v>
       </c>
       <c r="G157" t="n">
-        <v>47437.05875109007</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5930,18 +5433,15 @@
         <v>2293.8028</v>
       </c>
       <c r="G158" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5963,18 +5463,15 @@
         <v>17600</v>
       </c>
       <c r="G159" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5996,18 +5493,15 @@
         <v>2033</v>
       </c>
       <c r="G160" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6029,18 +5523,15 @@
         <v>12542.9998</v>
       </c>
       <c r="G161" t="n">
-        <v>49730.86155109007</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6062,18 +5553,15 @@
         <v>1460</v>
       </c>
       <c r="G162" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6095,18 +5583,15 @@
         <v>44622.4341</v>
       </c>
       <c r="G163" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6128,18 +5613,15 @@
         <v>2524</v>
       </c>
       <c r="G164" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6161,18 +5643,15 @@
         <v>19433.6366</v>
       </c>
       <c r="G165" t="n">
-        <v>48270.86155109007</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6194,18 +5673,15 @@
         <v>61.4501</v>
       </c>
       <c r="G166" t="n">
-        <v>48209.41145109007</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6227,18 +5703,15 @@
         <v>11200</v>
       </c>
       <c r="G167" t="n">
-        <v>59409.41145109007</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6260,18 +5733,15 @@
         <v>20000</v>
       </c>
       <c r="G168" t="n">
-        <v>59409.41145109007</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6293,18 +5763,15 @@
         <v>20200</v>
       </c>
       <c r="G169" t="n">
-        <v>59409.41145109007</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6326,18 +5793,15 @@
         <v>7337.612</v>
       </c>
       <c r="G170" t="n">
-        <v>52071.79945109007</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6359,18 +5823,15 @@
         <v>57626</v>
       </c>
       <c r="G171" t="n">
-        <v>109697.7994510901</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6392,18 +5853,15 @@
         <v>2704.9609</v>
       </c>
       <c r="G172" t="n">
-        <v>106992.8385510901</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6425,18 +5883,15 @@
         <v>13400</v>
       </c>
       <c r="G173" t="n">
-        <v>106992.8385510901</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6458,18 +5913,15 @@
         <v>2869.1019</v>
       </c>
       <c r="G174" t="n">
-        <v>106992.8385510901</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6491,18 +5943,15 @@
         <v>23789.3472</v>
       </c>
       <c r="G175" t="n">
-        <v>83203.49135109007</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6524,18 +5973,15 @@
         <v>58200</v>
       </c>
       <c r="G176" t="n">
-        <v>141403.4913510901</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6557,18 +6003,15 @@
         <v>10000</v>
       </c>
       <c r="G177" t="n">
-        <v>151403.4913510901</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6590,18 +6033,15 @@
         <v>1445.5913</v>
       </c>
       <c r="G178" t="n">
-        <v>151403.4913510901</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6623,18 +6063,15 @@
         <v>2288.0683</v>
       </c>
       <c r="G179" t="n">
-        <v>149115.4230510901</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6656,18 +6093,15 @@
         <v>420.992</v>
       </c>
       <c r="G180" t="n">
-        <v>149536.4150510901</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6689,18 +6123,15 @@
         <v>8371.983899999999</v>
       </c>
       <c r="G181" t="n">
-        <v>157908.3989510901</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6722,18 +6153,15 @@
         <v>8141</v>
       </c>
       <c r="G182" t="n">
-        <v>149767.3989510901</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6755,18 +6183,15 @@
         <v>321.973</v>
       </c>
       <c r="G183" t="n">
-        <v>149767.3989510901</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6788,18 +6213,15 @@
         <v>2637</v>
       </c>
       <c r="G184" t="n">
-        <v>147130.3989510901</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6821,18 +6243,15 @@
         <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>147140.3989510901</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6854,18 +6273,15 @@
         <v>3258.9999</v>
       </c>
       <c r="G186" t="n">
-        <v>143881.3990510901</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6887,18 +6303,15 @@
         <v>1548.1847</v>
       </c>
       <c r="G187" t="n">
-        <v>145429.5837510901</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6920,18 +6333,15 @@
         <v>86.0924</v>
       </c>
       <c r="G188" t="n">
-        <v>145429.5837510901</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6953,18 +6363,15 @@
         <v>4600</v>
       </c>
       <c r="G189" t="n">
-        <v>145429.5837510901</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
